--- a/new_content/dla_activity.xlsx
+++ b/new_content/dla_activity.xlsx
@@ -31,1156 +31,1156 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="384">
   <si>
-    <t>[[160140910, 160140911, 160140912], [160140916, 160140913, 160140914, 160140915], [160140917], [160140918, 160140919], [160140920, 160140921]]</t>
-  </si>
-  <si>
-    <t>[[160140976, 160140977], [160140969, 160140970, 160140971], [160140973, 160140972], [160140975, 160140974], [160140978, 160140979]]</t>
-  </si>
-  <si>
-    <t>[[160141032, 160141671, 160141672], [160141021, 160141022, 160141023], [160141024, 160141025, 160141026, 160141027], [160141669, 160141028], [160141670, 160141030], [160141673, 160141674]]</t>
-  </si>
-  <si>
-    <t>[[160141682, 160141683], [160141065, 160141066, 160141067], [160141068, 160141070], [160141685, 160141686, 160141687, 160141688], [160141071, 160141072], [160141684, 160141073, 160141074], [160141076], [160141689, 160141690]]</t>
-  </si>
-  <si>
-    <t>[[160141109, 160141110, 160141111], [160141704, 160141112, 160141113, 160141114], [160141115, 160141116, 160141117, 160141118], [160141119, 160141120], [160141705, 160141122], [160141706, 160141707]]</t>
-  </si>
-  <si>
-    <t>[[160141156, 160141157, 160141158], [160141717, 160141718, 160141719], [160141159, 160141160, 160141161], [160141162, 160141163], [160141165, 160141166], [160141720, 160141721]]</t>
-  </si>
-  <si>
-    <t>[[160140922, 160140923, 160140924], [160140925, 160140926, 160140927, 160140928], [160140929], [160140930, 160140931], [160140932, 160140933]]</t>
-  </si>
-  <si>
-    <t>[[160140986, 160140987], [160140988, 160140989], [160140990, 160140991, 160140992], [160140980, 160140981, 160140982], [160140983], [160140984, 160140985], [160140994, 160140993]]</t>
-  </si>
-  <si>
-    <t>[[160141033, 160141034, 160141035], [160141036, 160141037, 160141038], [160141039], [160141041, 160141042], [160141675, 160141676]]</t>
-  </si>
-  <si>
-    <t>[[160141077, 160141078, 160141079], [160141691, 160141080, 160141081, 160141082], [160141083, 160141084], [160141086], [160141692, 160141693]]</t>
-  </si>
-  <si>
-    <t>[[160141123, 160141124, 160141125], [160141126, 160141127, 160141128], [160141129, 160141130], [160141708, 160141132, 160141133], [160141709, 160141710]]</t>
-  </si>
-  <si>
-    <t>[[160141167, 160141168, 160141169], [160141170, 160141171, 160141172], [160141173, 160141174], [160141722, 160141176, 160141177], [160141723, 160141724]]</t>
-  </si>
-  <si>
-    <t>[[160140934, 160140935, 160140936, 160140937], [160140938, 160140939, 160140940], [160140948, 160140949, 160140950], [160140941, 160140942, 160140943], [160140944, 160140945], [160140946, 160140947], [160140951, 160140952]]</t>
-  </si>
-  <si>
-    <t>[[160140995, 160140996, 160140997], [160140998, 160140999, 160141000], [160141001, 160141002], [160141003, 160141004], [160141006, 160141005]]</t>
-  </si>
-  <si>
-    <t>[[160141043, 160141044, 160141045, 160141046], [160141047, 160141048, 160141049], [160141050], [160141052, 160141053], [160141677, 160141678]]</t>
-  </si>
-  <si>
-    <t>[[160141694, 160141088, 160141089, 160141695], [160141091, 160141092], [160141699, 160141700, 160141701], [160141696, 160141093], [160141095], [160141697, 160141698]]</t>
-  </si>
-  <si>
-    <t>[[160141134, 160141135, 160141136], [160141137, 160141138, 160141139, 160141140, 160141711], [160141141], [160141143, 160141144], [160141712, 160141713]]</t>
-  </si>
-  <si>
-    <t>[[160141178, 160141179, 160141180], [160141181, 160141182, 160141183], [160141184, 160141185], [160141187, 160141188, 160141189], [160141726, 160141725]]</t>
-  </si>
-  <si>
-    <t>[[160140953, 160140954, 160140955], [160140964, 160140965, 160140966], [160140956, 160140957, 160140958], [160140959, 160140960], [160140961], [160140962, 160140963], [160140967, 160140968]]</t>
-  </si>
-  <si>
-    <t>[[160141007, 160141008, 160141009], [160141010, 160141011], [160141016, 160141017, 160141018], [160141013, 160141012], [160141014, 160141015], [160141020, 160141019]]</t>
-  </si>
-  <si>
-    <t>[[160141054, 160141055, 160141056, 160141057], [160141058, 160141059, 160141060], [160141679, 160141061], [160141063, 160141064], [160141680, 160141681]]</t>
-  </si>
-  <si>
-    <t>[[160141096, 160141097, 160141098], [160141099, 160141100, 160141101], [160141102, 160141103, 160141104], [160141105, 160141106], [160141108], [160141702, 160141703]]</t>
-  </si>
-  <si>
-    <t>[[160141145, 160141146, 160141147], [160141148, 160141149, 160141150], [160141151, 160141152], [160141714, 160141154, 160141155], [160141715, 160141716]]</t>
-  </si>
-  <si>
-    <t>[[160141190, 160141191, 160141192], [160141193, 160141194, 160141195], [160141196, 160141197], [160141199, 160141200], [160141728, 160141727]]</t>
-  </si>
-  <si>
-    <t>[[160140640, 160140641, 160140642, 160140643], [160141736, 160141737], [160141738, 160141739], [160140644, 160140645, 160140646], [160140647, 160140648], [160140650, 160140651], [160141741, 160141740]]</t>
-  </si>
-  <si>
-    <t>[[160140686, 160140687, 160140688], [160140689, 160140690, 160140691], [160140692, 160140693, 160140694], [160140695, 160140696], [160140698, 160140699], [160141748, 160141749]]</t>
-  </si>
-  <si>
-    <t>[[160140729, 160140730, 160140731], [160140732, 160140733, 160140734], [160140735, 160140736], [160140737, 160140738], [160140740, 160140741], [160141760, 160141761]]</t>
-  </si>
-  <si>
-    <t>[[160140770, 160140771, 160140772, 160140773], [160141770, 160141771, 160141772], [160140774, 160140775, 160140776, 160140777], [160140778, 160141769, 160140779], [160140781, 160140782], [160141774, 160141773]]</t>
-  </si>
-  <si>
-    <t>[[160140814, 160140815, 160140816], [160141791, 160141792, 160141793, 160141794], [160140817, 160140818, 160140819, 160140820], [160141795, 160141796, 160141797], [160140821, 160140822], [160140824, 160140825, 160141790], [160141799, 160141798]]</t>
-  </si>
-  <si>
-    <t>[[160140864, 160140865, 160140866], [160140867, 160140868, 160140869], [160140870, 160140871], [160140872, 160140873], [160140875, 160140876], [160141810, 160141809]]</t>
-  </si>
-  <si>
-    <t>[[160140652, 160140653, 160140654, 160140655], [160140656, 160140657, 160140658], [160140659, 160140660], [160140662, 160140663], [160141743, 160141742]]</t>
-  </si>
-  <si>
-    <t>[[160140700, 160140701], [160140702, 160140703, 160140704], [160140705, 160140706], [160140708, 160140709], [160141750, 160141751]]</t>
-  </si>
-  <si>
-    <t>[[160140742, 160140743, 160140744], [160140745, 160140746], [160140747], [160140749, 160140750], [160141762, 160141763]]</t>
-  </si>
-  <si>
-    <t>[[160140783, 160140784, 160146661], [160140786, 160140785, 160140787, 160146662], [160141775, 160141776], [160140790, 160146663], [160141778, 160146664]]</t>
-  </si>
-  <si>
-    <t>[[160141802, 160141803], [160140826, 160140827, 160140828], [160140830, 160140831], [160140832, 160140833], [160140834, 160140835], [160140837, 160140838], [160141801, 160141800]]</t>
-  </si>
-  <si>
-    <t>[[160140877, 160140878], [160140879, 160140880, 160140881], [160140882], [160140884, 160140885], [160141813, 160141812]]</t>
-  </si>
-  <si>
-    <t>[[160140664, 160140665, 160140666], [160140667, 160140668, 160140669], [160140670, 160140671], [160140673, 160140674], [160141745, 160141744]]</t>
-  </si>
-  <si>
-    <t>[[160140710, 160140711, 160140712], [160140713, 160140714, 160140715], [160141752, 160141753], [160140716, 160140717], [160140719, 160140720], [160141754, 160141755]]</t>
-  </si>
-  <si>
-    <t>[[160140751, 160140752], [160140753, 160140754], [160140755, 160140756], [160140758, 160140759], [160141764, 160141765]]</t>
-  </si>
-  <si>
-    <t>[[160141779, 160141780, 160141781], [160140793, 160140794, 160140795], [160140796, 160140797, 160140798], [160140799, 160140800], [160140802, 160140803], [160141783, 160141782]]</t>
-  </si>
-  <si>
-    <t>[[160140839, 160140840, 160140841], [160140842, 160140843, 160140844, 160146665], [160140846, 160140847, 160146666], [160140852, 160140853], [160141806, 160146667]]</t>
-  </si>
-  <si>
-    <t>[[160140886, 160140887, 160140888], [160140889, 160140890, 160140891, 160141814], [160140892, 160140893, 160140894], [160140895, 160140896], [160141815, 160140898, 160140899], [160141817, 160141816]]</t>
-  </si>
-  <si>
-    <t>[[160140675, 160140676], [160140677, 160140678], [160140679, 160140680], [160140681, 160140682], [160140684, 160140685], [160141747, 160141746]]</t>
-  </si>
-  <si>
-    <t>[[160140721, 160140722, 160140723, 160140724], [160141756, 160141757], [160140725], [160140727, 160140728], [160141758, 160141759]]</t>
-  </si>
-  <si>
-    <t>[[160140760, 160140761, 160140762], [160140763, 160140764, 160141766], [160140765, 160140766], [160140768, 160140769], [160141767, 160141768]]</t>
-  </si>
-  <si>
-    <t>[[160140804, 160140805, 160140806], [160140807, 160140808, 160140809], [160141785, 160141786, 160141787], [160141784, 160140810], [160140812, 160140813], [160141789, 160141788]]</t>
-  </si>
-  <si>
-    <t>[[160140854, 160140855, 160140856], [160140857, 160140858, 160140859], [160140860], [160140862, 160140863], [160141808, 160141807]]</t>
-  </si>
-  <si>
-    <t>[[160140900, 160140901, 160140902], [160140904, 160140903, 160140905, 160141818], [160140906], [160140908, 160140909], [160141820, 160141819]]</t>
-  </si>
-  <si>
-    <t>[[160140345, 160140346, 160140347], [160140348, 160140349, 160140351, 160141821], [160141822, 160141823, 160141824], [160140352, 160140353], [160140355, 160140356], [160141826, 160141825]]</t>
-  </si>
-  <si>
-    <t>[[160141836, 160141837], [160140391, 160140392, 160140393], [160140394, 160140395, 160140396], [160141835, 160140397], [160140399, 160140400], [160141838, 160141839]]</t>
-  </si>
-  <si>
-    <t>[[160140436, 160140437, 160141849, 160140438, 160140439], [160140440, 160140441, 160140442, 160140443], [160140444], [160140446, 160140447], [160141851, 160141850]]</t>
-  </si>
-  <si>
-    <t>[[160140486, 160140487, 160140488], [160140489, 160140490, 160140491], [160140492, 160140493, 160141862, 160140494], [160140495, 160140496], [160140498, 160140499], [160141864, 160141863]]</t>
-  </si>
-  <si>
-    <t>[[160140542, 160140543, 160140544, 160140545], [160140546, 160141874, 160140547, 160140548], [160141875, 160141876, 160141877], [160140549], [160140551, 160140552], [160141879, 160141878]]</t>
-  </si>
-  <si>
-    <t>[[160141895, 160142724, 160141897], [160140593, 160140594, 160140595], [160140596, 160140597, 160140598, 160140599], [160140600, 160140601, 160140602], [160140603], [160140605, 160140606], [160141899, 160141898]]</t>
-  </si>
-  <si>
-    <t>[[160140357, 160140358, 160140359], [160140360, 160140361, 160140362], [160140363, 160140364, 160140365, 160140366], [160140367, 160140368], [160140370, 160140371], [160141828, 160141827]]</t>
-  </si>
-  <si>
-    <t>[[160140401, 160141840, 160140402], [160140403, 160141841, 160141842], [160140406], [160140408, 160140409], [160141843, 160141844]]</t>
-  </si>
-  <si>
-    <t>[[160140448, 160140449, 160140450, 160140451], [160140452, 160140453, 160141852], [160140454, 160140455, 160140456, 160140457], [160140458], [160140460, 160140461], [160141853, 160141854]]</t>
-  </si>
-  <si>
-    <t>[[160140500, 160140501, 160140502], [160140503, 160140504, 160141865, 160140506], [160140507, 160140509, 160140508], [160140510], [160140512, 160140513], [160141867, 160141866]]</t>
-  </si>
-  <si>
-    <t>[[160141882, 160141883], [160140553, 160140554, 160140555], [160140556, 160140557, 160140558, 160140559], [160140560, 160140562, 160140561], [160141880, 160140563], [160141881, 160140565, 160140566], [160141885, 160141884]]</t>
-  </si>
-  <si>
-    <t>[[160140607, 160140608, 160140609], [160140610, 160140611, 160140612, 160140613], [160140614], [160140616, 160140617], [160141901, 160141900]]</t>
-  </si>
-  <si>
-    <t>[[160140372, 160140373, 160140374], [160140375, 160140376], [160141829, 160141830], [160140377, 160140378], [160140380, 160140381], [160141832, 160141831]]</t>
-  </si>
-  <si>
-    <t>[[160140410, 160140411, 160140412], [160140413, 160140414, 160140415], [160140416], [160140418, 160140419], [160141846, 160141845]]</t>
-  </si>
-  <si>
-    <t>[[160140462, 160140463, 160140464], [160140465, 160140466, 160140467, 160140468], [160141856, 160141857], [160140469, 160140470], [160140472, 160141855, 160140473], [160141859, 160141858]]</t>
-  </si>
-  <si>
-    <t>[[160140514, 160140515, 160141868, 160140517], [160140518, 160140519, 160140520], [160140521, 160140522, 160140523], [160140524], [160140526, 160140527], [160141870, 160141869]]</t>
-  </si>
-  <si>
-    <t>[[160141888, 160141889], [160140567, 160140568, 160140569], [160140570, 160140571, 160140572], [160141886, 160140573], [160141887, 160140575, 160140576], [160141891, 160141890]]</t>
-  </si>
-  <si>
-    <t>[[160140618, 160140619, 160140620, 160141902], [160140622, 160140623, 160140624], [160140625], [160140627, 160140628], [160141904, 160141903]]</t>
-  </si>
-  <si>
-    <t>[[160140382, 160140383, 160140384], [160140385, 160140386], [160140387], [160140389, 160140390], [160141834, 160141833]]</t>
-  </si>
-  <si>
-    <t>[[160140420, 160140421, 160140422], [160140423, 160140424, 160140425, 160146668], [160140427, 160140428, 160140429], [160146669, 160146670, 160146671], [160140433, 160140434], [160141848, 160146672]]</t>
-  </si>
-  <si>
-    <t>[[160140474, 160140475, 160140476, 160140477], [160140478, 160140479, 160140480, 160140481], [160140482], [160140484, 160140485], [160141861, 160141860]]</t>
-  </si>
-  <si>
-    <t>[[160140528, 160140529, 160141871], [160140531, 160140532, 160140533, 160146673], [160140535, 160140536, 160140537, 160146679], [160140540, 160140541], [160141873, 160146680]]</t>
-  </si>
-  <si>
-    <t>[[160140577, 160140578, 160140579, 160140580], [160140581, 160140582, 160141892, 160140583, 160140584], [160140585, 160140586, 160140587], [160140588, 160140589], [160140591, 160140592], [160141894, 160141893]]</t>
-  </si>
-  <si>
-    <t>[[160140629, 160140630, 160140631], [160140632, 160140633, 160140634, 160140635, 160146674], [160146675, 160146676, 160146677], [160140638, 160140639], [160141906, 160146678]]</t>
-  </si>
-  <si>
-    <t>[[160141907, 160141908], [160141909, 160141910, 160141911], [160141912, 160141913, 160141914], [160141915, 160141916], [160141917, 160141918], [160141919, 160141920]]</t>
-  </si>
-  <si>
-    <t>[[160141975, 160141976, 160141977, 160141978], [160141979, 160141980, 160141981], [160141982, 160141983, 160141984], [160141985, 160141986], [160141987, 160141988], [160141989, 160141990]]</t>
-  </si>
-  <si>
-    <t>[[160142032, 160142033, 160142034, 160142035], [160142037, 160142038, 160142039], [160142040, 160142041, 160142042, 160146681], [160142043, 160142044, 160146682], [160142045, 160142297, 160146683], [160142050, 160142051], [160142052, 160146684]]</t>
-  </si>
-  <si>
-    <t>[[160142105, 160142293, 160142107, 160142108], [160142109, 160142110, 160142111], [160142112, 160142113], [160142294, 160142115], [160142116, 160142117], [160142118, 160142119]]</t>
-  </si>
-  <si>
-    <t>[[160142227, 160142228, 160142229], [160142230, 160142231, 160142232], [160142233, 160142234, 160142235], [160142236, 160142237, 160142238, 160142239], [160142240, 160142241], [160142242], [160142243, 160142244]]</t>
-  </si>
-  <si>
-    <t>[[160142162, 160142163], [160142164, 160142165, 160142166], [160142167, 160142168], [160142169, 160142170, 160142171], [160142172, 160142173], [160142174, 160142175], [160142176, 160142177]]</t>
-  </si>
-  <si>
-    <t>[[160141921, 160141922, 160141923, 160141924], [160141925, 160141926, 160141927], [160141928, 160141929, 160141930, 160141931], [160141932, 160141933, 160141934], [160141935, 160141936], [160141937, 160141938], [160141939, 160141940]]</t>
-  </si>
-  <si>
-    <t>[[160141991, 160141992, 160141993, 160141994], [160141995, 160141996], [160141997, 160141998], [160141999], [160142000, 160142001], [160142002, 160142003]]</t>
-  </si>
-  <si>
-    <t>[[160142054, 160142055, 160142056], [160142057, 160142058], [160142059, 160142060, 160142061], [160142062, 160142299, 160142064], [160142065, 160142066], [160142067, 160142068], [160142069, 160142070]]</t>
-  </si>
-  <si>
-    <t>[[160142120, 160142121, 160142122, 160142123], [160142124, 160142125, 160142126], [160142127, 160142128], [160142295, 160142130], [160142296, 160142132, 160142133], [160142134, 160142135]]</t>
-  </si>
-  <si>
-    <t>[[160142245, 160142246, 160142247, 160142248], [160142249, 160142250, 160142251], [160142252, 160142301, 160142254], [160142255, 160142256, 160142257], [160142258, 160142259], [160142260], [160142261, 160142262]]</t>
-  </si>
-  <si>
-    <t>[[160142178, 160142179, 160142180], [160142181, 160142182, 160142183], [160142184, 160142185, 160142186], [160142187, 160142188], [160142189, 160142190], [160142191, 160142192]]</t>
-  </si>
-  <si>
-    <t>[[160141941, 160141942, 160141943, 160141944], [160141945, 160141946, 160141947], [160141948, 160141949, 160141950, 160141951], [160141952, 160141953, 160141954], [160141955, 160141956], [160141957, 160141958], [160141959, 160141960]]</t>
-  </si>
-  <si>
-    <t>[[160142004, 160142005, 160142006, 160142007], [160142008, 160142009, 160142010], [160142011, 160142012], [160142013, 160142014], [160142015, 160142016], [160142017, 160142018]]</t>
-  </si>
-  <si>
-    <t>[[160142071, 160142072, 160142073, 160142074], [160142075, 160142076, 160142077], [160142078, 160142079, 160142080], [160142081, 160142082], [160142083], [160142084, 160142085], [160142086, 160142087]]</t>
-  </si>
-  <si>
-    <t>[[160142136, 160142137, 160142138], [160142139, 160142140, 160142141], [160142142], [160142143, 160142144], [160142145, 160142146]]</t>
-  </si>
-  <si>
-    <t>[[160142263, 160142264, 160142265], [160142266, 160142267, 160142268], [160142269, 160142270, 160142271, 160142272], [160142273], [160142274, 160142275], [160142276, 160142277]]</t>
-  </si>
-  <si>
-    <t>[[160142193, 160142194, 160142195], [160142196, 160142197, 160142198, 160142199], [160142200, 160142201, 160142202], [160142203, 160142204, 160142205], [160142206], [160142207, 160142208], [160142209, 160142210]]</t>
-  </si>
-  <si>
-    <t>[[160141961, 160141962, 160141963], [160141964, 160141965, 160141966], [160141967, 160141968, 160141969], [160141970, 160141971], [160141972], [160141973, 160141974]]</t>
-  </si>
-  <si>
-    <t>[[160142019, 160142020, 160142021, 160142022], [160142023, 160142024], [160142025, 160142026, 160142027], [160142028], [160142029], [160142030, 160142031]]</t>
-  </si>
-  <si>
-    <t>[[160142088, 160142089, 160142090, 160142091], [160142092, 160142093, 160142094], [160142095, 160142096, 160142300, 160142098], [160142099, 160142100], [160142101, 160142102], [160142103, 160142104]]</t>
-  </si>
-  <si>
-    <t>[[160142147, 160142148, 160142149, 160142150], [160142151, 160142152, 160142153], [160142154, 160142155, 160142156], [160142157], [160142158, 160142159], [160142160, 160142161]]</t>
-  </si>
-  <si>
-    <t>[[160142278, 160142279, 160142280], [160142281, 160142282, 160142725, 160142284], [160146685, 160146686, 160146687, 160146694, 160146688], [160142288], [160142289], [160142291, 160146689]]</t>
-  </si>
-  <si>
-    <t>[[160142211, 160142212, 160142213], [160142214, 160142215, 160142217], [160142218, 160142219, 160146690, 160146691], [160142223, 160142224], [160146692, 160146693]]</t>
-  </si>
-  <si>
-    <t>[[160143323, 160143324, 160143325, 160143326], [160143327, 160143328, 160143329, 160143330], [160143331, 160143332], [160143333, 160143334, 160143335, 160143336], [160143337], [160143338, 160143339], [160143340, 160143341]]</t>
-  </si>
-  <si>
-    <t>[[160143589, 160143590, 160143591], [160143592, 160143593, 160143594], [160143595], [160143596], [160143597, 160143598]]</t>
-  </si>
-  <si>
-    <t>[[160143263, 160143264, 160143265, 160143266], [160143267, 160143268, 160143269], [160143270], [160143271], [160143273, 160143272]]</t>
-  </si>
-  <si>
-    <t>[[160143397, 160143398, 160143399], [160143400, 160143401, 160143402], [160143403, 160143404, 160143405, 160143406], [160143407], [160143408], [160143409, 160143410]]</t>
-  </si>
-  <si>
-    <t>[[160143631, 160143632, 160143633], [160143634], [160143635, 160143636], [160143637, 160143638, 160143639], [160143640], [160143641, 160143642], [160143643, 160143644]]</t>
-  </si>
-  <si>
-    <t>[[160143691, 160143692, 160143693], [160143694, 160143695, 160143696], [160143697], [160143698, 160143699, 160143700], [160143701], [160143702, 160143703, 160143704], [160143705], [160143706, 160143707, 160143708], [160143709, 160143710]]</t>
-  </si>
-  <si>
-    <t>[[160143342, 160143343, 160143344], [160143345], [160143346, 160143347, 160143348], [160143349], [160143350, 160143351]]</t>
-  </si>
-  <si>
-    <t>[[160143599, 160143600, 160143601, 160143602], [160143603, 160143604], [160143605], [160143606, 160143607], [160143608, 160143609]]</t>
-  </si>
-  <si>
-    <t>[[160143274, 160143275, 160143276], [160143277, 160143278, 160143279, 160143280], [160143281, 160143282, 160143283, 160143284], [160143285], [160143286, 160143287], [160143288, 160143289]]</t>
-  </si>
-  <si>
-    <t>[[160143411, 160143412, 160143413], [160143414, 160143415, 160143416], [160143417, 160143418], [160143420, 160143421, 160143630], [160143422], [160143423, 160143424], [160143425, 160143426]]</t>
-  </si>
-  <si>
-    <t>[[160143645, 160143646, 160143647], [160143648], [160143649, 160143650, 160143651], [160143652, 160143653, 160143654], [160143655], [160143656, 160143657], [160143658, 160143659]]</t>
-  </si>
-  <si>
-    <t>[[160143711, 160143712, 160143713], [160143714], [160143715, 160143716, 160143717], [160143718], [160143719, 160143720], [160143721, 160143722]]</t>
-  </si>
-  <si>
-    <t>[[160143352, 160143353, 160143354], [160143355, 160143356, 160143357], [160143358, 160143359, 160143360, 160143361], [160143362, 160143363], [160143364, 160143365], [160143366, 160143367]]</t>
-  </si>
-  <si>
-    <t>[[160143610, 160143611, 160143612], [160143613], [160143614, 160143615, 160143616], [160143617], [160143618, 160143619], [160143620, 160143621]]</t>
-  </si>
-  <si>
-    <t>[[160143290, 160143291, 160143292], [160143293, 160143294, 160143295], [160143296, 160143297, 160143298], [160143299, 160143300, 160143301], [160143302], [160143303], [160143304, 160143305]]</t>
-  </si>
-  <si>
-    <t>[[160143427, 160143428, 160143429], [160143430], [160143431, 160143432, 160143433], [160143434, 160143435, 160143436], [160143437, 160143438], [160143439, 160143440, 160143441, 160143442], [160143443], [160143444], [160143445, 160143446]]</t>
-  </si>
-  <si>
-    <t>[[160143660, 160143661, 160143662, 160143663], [160143664], [160143665, 160143666, 160143667], [160143668, 160143669, 160143670], [160143671], [160143672, 160143673], [160143674, 160143675]]</t>
-  </si>
-  <si>
-    <t>[[160143723, 160143724, 160143725], [160143726], [160143727, 160143728, 160143729], [160143730], [160143731, 160143732], [160143733, 160143734]]</t>
-  </si>
-  <si>
-    <t>[[160143368, 160143369, 160143370, 160143371], [160143372], [160143373, 160143374, 160143375], [160143376, 160143377, 160143378], [160143379], [160143380, 160143381, 160143382], [160143383, 160143384]]</t>
-  </si>
-  <si>
-    <t>[[160143622, 160143623], [160143624, 160143625, 160146697], [160143626, 160143627], [160143628, 160146698]]</t>
-  </si>
-  <si>
-    <t>[[160143306, 160143307, 160143308], [160143309, 160143310, 160143311], [160143312, 160143313], [160143314], [160143315, 160143316, 160143317], [160143318], [160143319, 160143320], [160143321, 160143322]]</t>
-  </si>
-  <si>
-    <t>[[160143447, 160143448, 160143449], [160143450, 160143451, 160143452, 160143453], [160143454], [160143455], [160143456, 160143457]]</t>
-  </si>
-  <si>
-    <t>[[160143676, 160143677, 160143678, 160143679], [160143680, 160143681, 160143682], [160143683, 160143684, 160143685, 160146695], [160143686], [160143688, 160143687], [160143689, 160146696]]</t>
-  </si>
-  <si>
-    <t>[[160143735, 160143736, 160143737], [160143738], [160143739, 160143740, 160143741], [160143742], [160143743, 160143744, 160143745], [160143746], [160143747, 160143748, 160143749], [160143750, 160143751]]</t>
-  </si>
-  <si>
-    <t>[[160143458, 160143459, 160143460], [160143461, 160143462, 160143463], [160143464], [160143465, 160143466, 160143467], [160143468], [160143469, 160143470], [160143471, 160143472]]</t>
-  </si>
-  <si>
-    <t>[[160143757, 160143758, 160143759, 160143760], [160143761], [160143762, 160143763, 160143764], [160143765], [160143766, 160143767, 160143768], [160143769], [160143770], [160143771, 160143772]]</t>
-  </si>
-  <si>
-    <t>[[160143523, 160143524, 160143525, 160143526], [160143527], [160143528, 160143529, 160143530], [160143531, 160143532, 160143533], [160143534], [160143535, 160143536], [160143537, 160143538]]</t>
-  </si>
-  <si>
-    <t>[[160143888, 160143889, 160143890, 160143891], [160143892], [160143893, 160143894, 160143895], [160143896], [160143897, 160143898, 160143899], [160143900], [160143901, 160143903, 160143902], [160143904, 160143905]]</t>
-  </si>
-  <si>
-    <t>[[160143817, 160143818, 160143819, 160143820], [160143821, 160143822, 160143823], [160143824], [160143825, 160143826, 160143827], [160143828], [160143829, 160143830, 160143831], [160143832], [160143833, 160143834, 160143949], [160143836, 160143837]]</t>
-  </si>
-  <si>
-    <t>[[160143952, 160143953, 160143954], [160143955], [160143956, 160143957, 160143958], [160143959], [160143960, 160143961], [160143962, 160143963]]</t>
-  </si>
-  <si>
-    <t>[[160143473, 160143474, 160143475, 160143476], [160143477], [160143478, 160143479, 160143480], [160143481], [160143482, 160143483, 160143484], [160143485], [160143486, 160143487], [160143488, 160143489]]</t>
-  </si>
-  <si>
-    <t>[[160143773, 160143774, 160143775], [160143776, 160143777, 160143778], [160143779], [160143780, 160143781, 160143782], [160143783], [160143784], [160143785, 160143786]]</t>
-  </si>
-  <si>
-    <t>[[160143539, 160143540, 160143541], [160143542], [160143543, 160143544, 160143545], [160143546, 160143547], [160143548, 160143549, 160143815], [160143551], [160143552], [160143553, 160143554]]</t>
-  </si>
-  <si>
-    <t>[[160143906, 160143908, 160143907], [160143909, 160143910, 160143911], [160143912], [160143913, 160143914, 160143915], [160143916], [160143919, 160143917, 160143918], [160143920, 160143921]]</t>
-  </si>
-  <si>
-    <t>[[160143838, 160143839, 160143840], [160143841], [160143842, 160143843, 160143844, 160143845], [160143846], [160143847, 160143848, 160143849], [160143850], [160143851, 160143950], [160143853, 160143854]]</t>
-  </si>
-  <si>
-    <t>[[160143964, 160143965, 160143966], [160143967, 160143968, 160143969], [160143970], [160143971, 160143972, 160143973], [160143974], [160143975, 160143976]]</t>
-  </si>
-  <si>
-    <t>[[160143490, 160143491, 160143492], [160143493, 160143494, 160143495], [160143496], [160143497, 160143498, 160143499, 160143500], [160143501], [160143502], [160143503, 160143504]]</t>
-  </si>
-  <si>
-    <t>[[160143787, 160143788, 160143789, 160143790], [160143791, 160143792, 160143793], [160143794, 160143795, 160143796], [160143797], [160143798], [160143799, 160143800]]</t>
-  </si>
-  <si>
-    <t>[[160143555, 160143556, 160143557, 160143558], [160143559], [160143560, 160143561, 160143562], [160143563, 160143564, 160143565], [160143566], [160143567, 160143568], [160143569, 160143570]]</t>
-  </si>
-  <si>
-    <t>[[160143922, 160143923, 160143924, 160143925], [160143926], [160143927, 160143928, 160143929, 160143930], [160143931], [160143932, 160143933], [160143934, 160143935]]</t>
-  </si>
-  <si>
-    <t>[[160143855, 160143856, 160143857, 160143858], [160143859, 160143860, 160143861], [160143862], [160143863, 160143864, 160143865], [160143866], [160143951, 160143868, 160143869], [160143870, 160143871]]</t>
-  </si>
-  <si>
-    <t>[[160143977, 160143978, 160143979], [160143980], [160143981, 160143982, 160143983], [160143984], [160143985, 160143986, 160143987], [160143988], [160143989, 160143990]]</t>
-  </si>
-  <si>
-    <t>[[160143505, 160143506], [160143507, 160143508, 160143509, 160143510, 160146704], [160143511], [160146705, 160146706]]</t>
-  </si>
-  <si>
-    <t>[[160143801, 160143802, 160143803], [160143804, 160143805, 160143806], [160143807], [160143808, 160143809, 160143810], [160143811], [160143812], [160143813, 160143814]]</t>
-  </si>
-  <si>
-    <t>[[160143571, 160143572, 160143573], [160143574], [160143575, 160143576, 160143577], [160143578, 160143579, 160143580, 160143581], [160143582, 160143583], [160143584], [160143585, 160143586], [160148836, 160148837]]</t>
-  </si>
-  <si>
-    <t>[[160143936, 160143937, 160143938, 160143939], [160143940], [160143941, 160143942, 160143943], [160143944], [160143945, 160143946], [160143947, 160143948]]</t>
-  </si>
-  <si>
-    <t>[[160143872, 160143873, 160143874, 160146699], [160143875, 160143876, 160146700], [160143877, 160143878, 160143879], [160143880, 160143881, 160146703, 160143882], [160143883, 160143884], [160146701, 160146702]]</t>
-  </si>
-  <si>
-    <t>[[160143991, 160143992, 160143993], [160143994], [160143995, 160143996, 160143997], [160143998], [160144003, 160144000], [160144001, 160144002]]</t>
-  </si>
-  <si>
-    <t>[[160146707, 160146708, 160146709, 160146770], [160146710, 160146711, 160146712], [160146713, 160146714], [160146715, 160146716], [160146773, 160146717, 160146771, 160146772], [160146718], [160146719, 160146720], [160146721, 160146774]]</t>
-  </si>
-  <si>
-    <t>[[160146834, 160146893, 160146835], [160146836, 160146837, 160146838, 160146839], [160146840, 160146841, 160146842], [160146843], [160146844], [160146845, 160146846]]</t>
-  </si>
-  <si>
-    <t>[[160146896, 160146897, 160146898, 160146899], [160146900], [160146901, 160146902, 160146903], [160146904, 160146905, 160146906, 160146907], [160146908], [160146909, 160146910]]</t>
-  </si>
-  <si>
-    <t>[[160147023, 160146954, 160146955], [160146956, 160146957, 160146958], [160146959], [160146960, 160146961, 160146962], [160146963, 160146964, 160146965, 160146966], [160146967], [160146968, 160146969], [160146970, 160146971]]</t>
-  </si>
-  <si>
-    <t>[[160147007, 160147008, 160147009, 160147010], [160147011, 160147012], [160147013], [160147014, 160147015, 160147016], [160147017, 160147018, 160147019], [160147020], [160147021], [160147022, 160147024]]</t>
-  </si>
-  <si>
-    <t>[[160146775, 160146776, 160146777, 160146778], [160146779], [160146780, 160146781, 160146782], [160146783, 160146784, 160146785, 160146786], [160146787], [160146829, 160146830], [160146788, 160146789]]</t>
-  </si>
-  <si>
-    <t>[[160146722, 160146723, 160146724, 160146725], [160146726, 160146727, 160146728, 160146729], [160146730], [160146731, 160146732, 160146733], [160146734, 160146735, 160146736], [160146737], [160146738, 160146739], [160146740, 160146741]]</t>
-  </si>
-  <si>
-    <t>[[160146847, 160146848, 160146849], [160146850, 160146851, 160146852, 160146853, 160146854], [160146855, 160146856, 160146857], [160146858], [160146859], [160146860, 160146861]]</t>
-  </si>
-  <si>
-    <t>[[160146911, 160146912, 160146913, 160146914], [160146915], [160146916, 160146917, 160146918], [160146919, 160146920, 160146921], [160146922], [160146923], [160146924, 160146925]]</t>
-  </si>
-  <si>
-    <t>[[160146972, 160146973, 160146974, 160146975], [160146976, 160146977, 160146978, 160146979], [160146980, 160146981, 160146982], [160146983, 160146984, 160146985], [160146986], [160146987, 160146988, 160146989], [160146990, 160146991]]</t>
-  </si>
-  <si>
-    <t>[[160147026, 160147029, 160147032, 160147037], [160147038, 160147040, 160147043, 160147045], [160147046], [160147047, 160147050, 160147055], [160147056, 160147057, 160147058], [160147059], [160147060], [160147061, 160147062]]</t>
-  </si>
-  <si>
-    <t>[[160146790, 160146791, 160146792, 160146793], [160146794], [160146795, 160146796, 160146797], [160146798], [160146831, 160146799], [160146800, 160146801]]</t>
-  </si>
-  <si>
-    <t>[[160146742, 160146743, 160146744, 160146745], [160146746, 160146747, 160146748, 160146828], [160146749, 160146750, 160146751], [160146752], [160146753, 160146754], [160146755, 160146756]]</t>
-  </si>
-  <si>
-    <t>[[160146862, 160146863, 160146864, 160146865], [160146866, 160146894, 160146867, 160146868], [160146869, 160146870, 160146871], [160146872], [160146895, 160146873], [160146874], [160146875, 160146876]]</t>
-  </si>
-  <si>
-    <t>[[160146926, 160146927, 160146928], [160146929], [160146930, 160146931, 160146932], [160146933, 160146934, 160146935], [160146936], [160146937], [160146938, 160146939]]</t>
-  </si>
-  <si>
-    <t>[[160146992, 160146993, 160146994, 160146995], [160146996], [160146997, 160146998, 160146999], [160147000], [160147001, 160147002, 160147003], [160147004], [160147005, 160147006]]</t>
-  </si>
-  <si>
-    <t>[[160147063, 160147064, 160147065, 160147066], [160147067, 160147068, 160147069, 160147070], [160147071], [160147072, 160147073, 160147074, 160147075], [160147076, 160147077, 160147078], [160147079], [160147080, 160147081], [160147082, 160147083]]</t>
-  </si>
-  <si>
-    <t>[[160146802, 160146803, 160146804], [160146805, 160146806, 160146807, 160146808], [160146809], [160146832, 160146833], [160146810, 160146811]]</t>
-  </si>
-  <si>
-    <t>[[160146757, 160146758, 160146759], [160146760, 160146761, 160146762], [160146763], [160146764, 160146765, 160146766], [160146767], [160146768, 160146769]]</t>
-  </si>
-  <si>
-    <t>[[160146877, 160146878, 160146879, 160146880], [160146881, 160146882, 160146883], [160146884], [160146885, 160146886, 160146887], [160146888], [160146889, 160146890], [160146891, 160146892]]</t>
-  </si>
-  <si>
-    <t>[[160146940, 160146941, 160146942, 160146943], [160146944, 160146945, 160146946], [160146947, 160146948, 160146949], [160146950], [160146951], [160146952, 160146953]]</t>
-  </si>
-  <si>
-    <t>[[160147025, 160147027, 160147028, 160147030], [160147031, 160147033, 160147034], [160147035], [160147036, 160147039, 160147041], [160147042], [160147044, 160147048, 160147049], [160147051, 160147052], [160147053, 160147054]]</t>
-  </si>
-  <si>
-    <t>[[160147084, 160147085, 160147086], [160147087], [160147088, 160147089, 160147090], [160147091, 160147092, 160147093], [160147094, 160147095], [160147096], [160147097, 160147098]]</t>
-  </si>
-  <si>
-    <t>[[160146812, 160146813, 160146814], [160146815, 160146816, 160146817], [160146818, 160146819, 160146820], [160146821, 160146822, 160146823], [160146824, 160146825], [160146826, 160146827]]</t>
-  </si>
-  <si>
-    <t>[[160147205, 160147206, 160147207], [160147208, 160147209, 160147210, 160147211], [160147212], [160147213, 160147214], [160147215, 160147216]]</t>
-  </si>
-  <si>
-    <t>[[160147257, 160147258, 160147259, 160147260], [160147261], [160147262, 160147263, 160147264, 160147265], [160147266], [160147267], [160147268, 160147269]]</t>
-  </si>
-  <si>
-    <t>[[160147311, 160147312, 160147313, 160147314], [160147315], [160147316, 160147317, 160147318, 160147319], [160147320], [160147321, 160147322], [160147323, 160147324]]</t>
-  </si>
-  <si>
-    <t>[[160147375, 160147376, 160147377, 160147378, 160147379], [160147380], [160147381, 160147382, 160147383], [160147384], [160147385], [160147386, 160147387]]</t>
-  </si>
-  <si>
-    <t>[[160147099, 160147100, 160147101], [160147102, 160147103, 160147104, 160147105], [160147106], [160147107], [160147108, 160147109]]</t>
-  </si>
-  <si>
-    <t>[[160147151, 160147152, 160147153], [160147154, 160147155, 160147156, 160147157], [160147158], [160147159, 160147160, 160147161], [160147162], [160147163], [160147164, 160147165]]</t>
-  </si>
-  <si>
-    <t>[[160147217, 160147218, 160147219], [160147220], [160147221, 160147222, 160147223, 160147224], [160147225], [160147226], [160147227, 160147228]]</t>
-  </si>
-  <si>
-    <t>[[160147270, 160147271, 160147272, 160147273], [160147274], [160147275, 160147276, 160147277], [160147278], [160147279, 160147280, 160147281], [160147282], [160147283], [160147284, 160147285]]</t>
-  </si>
-  <si>
-    <t>[[160147325, 160147326, 160147327, 160147328], [160147329], [160147330, 160147331, 160147332, 160147333], [160147334], [160147335, 160147336, 160147337, 160147338], [160147339], [160147340, 160147341], [160147342, 160147343]]</t>
-  </si>
-  <si>
-    <t>[[160147388, 160147389, 160147390, 160147391], [160147392], [160147393, 160147394, 160147395, 160147396], [160147397, 160147398, 160147399], [160147400], [160147401, 160147402], [160147403, 160147404]]</t>
-  </si>
-  <si>
-    <t>[[160147110, 160147111, 160147112, 160147113], [160147114, 160147115, 160147116], [160147117], [160147118, 160147119], [160147120, 160147121]]</t>
-  </si>
-  <si>
-    <t>[[160147166, 160147167, 160147168, 160147169], [160147170], [160147171, 160147172, 160147173, 160147174], [160147175], [160147176], [160147177, 160147178]]</t>
-  </si>
-  <si>
-    <t>[[160147229, 160147256, 160147230, 160147231], [160147232], [160147233, 160147234, 160147235], [160147236], [160147237, 160147238], [160147239, 160147240]]</t>
-  </si>
-  <si>
-    <t>[[160147286, 160147287, 160147288], [160147289, 160147290, 160147291, 160147292], [160147293], [160147294, 160147295, 160147296], [160147297, 160147298], [160147299, 160147300]]</t>
-  </si>
-  <si>
-    <t>[[160147344, 160147345, 160147346], [160147347], [160147348, 160147349, 160147350, 160147351], [160147352], [160147353, 160147354, 160147355], [160147356], [160147357, 160147358, 160147359], [160147360, 160147361]]</t>
-  </si>
-  <si>
-    <t>[[160147405, 160147406, 160147407], [160147408], [160147409, 160147410, 160147411, 160147412], [160147413], [160147414, 160147415], [160147416, 160147417]]</t>
-  </si>
-  <si>
-    <t>[[160147122, 160147123, 160147124, 160147125], [160147126, 160147127, 160147128, 160147129], [160147130, 160147131, 160147132], [160147133, 160147134], [160147135, 160147136]]</t>
-  </si>
-  <si>
-    <t>[[160147179, 160147180, 160147181, 160147204], [160147182, 160147183, 160147184, 160147185], [160147186, 160147187, 160147188], [160147189], [160147190], [160147191, 160147192]]</t>
-  </si>
-  <si>
-    <t>[[160147241, 160147242, 160147243, 160147244], [160147245, 160147246, 160147247, 160147248], [160147249, 160147250, 160147251], [160147252, 160147253], [160147254, 160147255]]</t>
-  </si>
-  <si>
-    <t>[[160147301, 160147302, 160147303], [160147304, 160147305, 160147306, 160147307], [160147308], [160147309, 160147310]]</t>
-  </si>
-  <si>
-    <t>[[160147362, 160147363, 160147364], [160147365, 160147366, 160147367], [160147368, 160147369, 160147370], [160147371, 160147372], [160147373, 160147374]]</t>
-  </si>
-  <si>
-    <t>[[160147418, 160147419, 160147420, 160147421], [160147422], [160147423, 160147424, 160147425, 160147426, 160147427], [160147428, 160147429, 160147430, 160147431, 160147432], [160147433], [160147434, 160147435], [160147436, 160147437]]</t>
-  </si>
-  <si>
-    <t>[[160147137, 160147138, 160147139, 160147140], [160147141, 160147142, 160147143], [160147144, 160147145, 160147146], [160147147], [160147148], [160147149, 160147150]]</t>
-  </si>
-  <si>
-    <t>[[160147193, 160147194, 160147195], [160147196], [160147197, 160147198, 160147199, 160147200], [160147201], [160147202, 160147203]]</t>
-  </si>
-  <si>
-    <t>[[160147491, 160147492, 160147493], [160147494, 160147495, 160147496], [160147497], [160147498], [160147499, 160147500]]</t>
-  </si>
-  <si>
-    <t>[[160147652, 160147653, 160147654, 160147689], [160147655, 160147656, 160147657, 160147658], [160147659], [160147660], [160147661, 160147662]]</t>
-  </si>
-  <si>
-    <t>[[160147690, 160147691, 160147692], [160147693, 160147694, 160147695, 160147696], [160147697], [160147698], [160147699, 160147700]]</t>
-  </si>
-  <si>
-    <t>[[160147438, 160147439, 160147440, 160147441, 160147442], [160147443], [160147444, 160147445, 160147446, 160147447, 160147448], [160147449], [160147450], [160147451, 160147452]]</t>
-  </si>
-  <si>
-    <t>[[160147542, 160147543, 160147544, 160147545], [160147546], [160147547, 160147548, 160147549, 160147550], [160147551], [160147552], [160147553, 160147554]]</t>
-  </si>
-  <si>
-    <t>[[160147594, 160147595, 160147596, 160147597], [160147598], [160147599, 160147600, 160147601], [160147602, 160147603, 160147604, 160147605], [160147606], [160147607, 160147608], [160147624, 160147626]]</t>
-  </si>
-  <si>
-    <t>[[160147501, 160147502, 160147503, 160147504], [160147505], [160147506, 160147507, 160147508, 160147509], [160147510], [160147511, 160147512], [160147513, 160147514]]</t>
-  </si>
-  <si>
-    <t>[[160147663, 160147664, 160147665, 160147666], [160147667], [160147668, 160147669, 160147670, 160147671], [160147672], [160147673], [160147674, 160147675]]</t>
-  </si>
-  <si>
-    <t>[[160147701, 160147702, 160147703], [160147704, 160147705, 160147706], [160147707], [160147708, 160147709, 160147710], [160147711], [160147712], [160147713, 160147714]]</t>
-  </si>
-  <si>
-    <t>[[160147453, 160147454, 160147455, 160147456], [160147457], [160147458, 160147459, 160147460], [160147461], [160147462], [160147463, 160147464]]</t>
-  </si>
-  <si>
-    <t>[[160147555, 160147556, 160147557], [160147558], [160147559, 160147560, 160147561, 160147562], [160147563], [160147564], [160147566, 160147565]]</t>
-  </si>
-  <si>
-    <t>[[160147627, 160147628, 160147629], [160147630], [160147631, 160147632, 160147633], [160147634], [160147635], [160147636, 160147637]]</t>
-  </si>
-  <si>
-    <t>[[160147515, 160147516, 160147517], [160147518], [160147519, 160147520, 160147521], [160147522], [160147523, 160147524, 160147525], [160147526], [160147527, 160147528], [160147529, 160147530]]</t>
-  </si>
-  <si>
-    <t>[[160147676, 160147677, 160147678], [160147679], [160147680, 160147681, 160147682], [160147683], [160147684, 160147685, 160147686], [160147687], [160147688], [160147726, 160147734]]</t>
-  </si>
-  <si>
-    <t>[[160147715, 160147716, 160147717, 160147718], [160147719, 160147720, 160147721], [160147722], [160147723], [160147724, 160147725]]</t>
-  </si>
-  <si>
-    <t>[[160147465, 160147466, 160147467, 160147468], [160147469], [160147470, 160147471, 160147472, 160147473], [160147474], [160147475, 160147476], [160147477, 160147478]]</t>
-  </si>
-  <si>
-    <t>[[160147567, 160147568, 160147569, 160147570], [160147571], [160147572, 160147573, 160147574, 160147575], [160147576], [160147577, 160147578], [160147579, 160147580]]</t>
-  </si>
-  <si>
-    <t>[[160147638, 160147639, 160147640, 160147641], [160147642], [160147643, 160147644, 160147645, 160147646], [160147647], [160147648, 160147649], [160147650, 160147651]]</t>
-  </si>
-  <si>
-    <t>[[160147531, 160147532, 160147533], [160147534], [160147535, 160147536, 160147537], [160147538], [160147539], [160147540, 160147541]]</t>
-  </si>
-  <si>
-    <t>[[160147737, 160147740, 160147741], [160147742, 160147743, 160147744], [160147745], [160147746], [160147747, 160147748]]</t>
-  </si>
-  <si>
-    <t>[[160147727, 160147728, 160147729, 160147730], [160147731, 160147732, 160147733], [160147735], [160147736], [160147738, 160147739]]</t>
-  </si>
-  <si>
-    <t>[[160147479, 160147480, 160147481], [160147482], [160147483, 160147484, 160147485, 160147486], [160147487], [160147488], [160147489, 160147490]]</t>
-  </si>
-  <si>
-    <t>[[160147581, 160147582, 160147583, 160147593], [160147584, 160147585, 160147586, 160147587], [160147588], [160147589, 160147590], [160147591, 160147592]]</t>
-  </si>
-  <si>
-    <t>[[160147609, 160147610, 160147611], [160147612, 160147613, 160147614], [160147615], [160147616, 160147617, 160147618, 160147619], [160147620], [160147621, 160147622], [160147623, 160147625]]</t>
-  </si>
-  <si>
-    <t>[[160147852, 160147853, 160147854, 160147855], [160147856, 160147857, 160147858], [160147859, 160147860, 160147861, 160147862], [160147863, 160147864, 160147865, 160147866], [160147867], [160147868], [160147869, 160147870]]</t>
-  </si>
-  <si>
-    <t>[[160147920, 160147921, 160147922, 160147923], [160147924], [160147925, 160147926, 160147927, 160147928], [160147929, 160147930, 160147931, 160147932, 160147933], [160147934], [160147935], [160147936, 160147937]]</t>
-  </si>
-  <si>
-    <t>[[160147749, 160147750, 160147751, 160147752], [160147753], [160147754, 160147755, 160147756, 160147757], [160147758], [160147759], [160147760, 160147761]]</t>
-  </si>
-  <si>
-    <t>[[160147986, 160147987], [160147988, 160147989, 160147990], [160147991], [160147992, 160147993]]</t>
-  </si>
-  <si>
-    <t>[[160147801, 160147802, 160147803, 160147804], [160147805], [160147806, 160147807, 160147808, 160147809], [160147810], [160147811], [160147812, 160147813]]</t>
-  </si>
-  <si>
-    <t>[[160148031, 160148032, 160148033, 160148034], [160148035], [160148036, 160148037, 160148038, 160148039], [160148040, 160148041], [160148042, 160148043]]</t>
-  </si>
-  <si>
-    <t>[[160147871, 160147872, 160147873, 160147874], [160147875, 160147876, 160147877, 160147878], [160147879], [160147880, 160147881, 160147882, 160147883], [160147884], [160147885], [160147886, 160147887]]</t>
-  </si>
-  <si>
-    <t>[[160147938, 160147939, 160147940, 160147941, 160147942], [160147943], [160147944, 160147945, 160147946, 160147947], [160147948], [160147949, 160147950], [160147951, 160147952]]</t>
-  </si>
-  <si>
-    <t>[[160147762, 160147763, 160147764, 160147765], [160147766], [160147767, 160147768, 160147769, 160147770, 160147771], [160147772], [160147773, 160147774], [160147775, 160147776]]</t>
-  </si>
-  <si>
-    <t>[[160147994, 160147995, 160147996, 160147997], [160147998], [160147999, 160148000, 160148001], [160148002], [160148003], [160148004, 160148005]]</t>
-  </si>
-  <si>
-    <t>[[160147814, 160147815, 160147816, 160147817], [160147818], [160147819, 160147820, 160147821, 160147822], [160147823], [160147824, 160147825], [160147826, 160147827]]</t>
-  </si>
-  <si>
-    <t>[[160148044, 160148045, 160148046], [160148047], [160148048, 160148049, 160148050, 160148051], [160148052], [160148053], [160148054, 160148055]]</t>
-  </si>
-  <si>
-    <t>[[160147888, 160147889, 160147890, 160147891], [160147892, 160147893, 160147894, 160147895], [160147896], [160147897, 160147898, 160147899, 160147900], [160147901], [160147902], [160147903, 160147904]]</t>
-  </si>
-  <si>
-    <t>[[160147953, 160147954, 160147955, 160147956], [160147957], [160147958, 160147959, 160147960, 160147961, 160147962], [160147963, 160147964, 160147965], [160147966], [160147967, 160147968], [160147969, 160147970]]</t>
-  </si>
-  <si>
-    <t>[[160147777, 160147778, 160147779, 160147780], [160147781], [160147782, 160147783, 160147784, 160147785], [160147786], [160147787, 160147788]]</t>
-  </si>
-  <si>
-    <t>[[160148006, 160148007, 160148008, 160148009], [160148010], [160148011, 160148012, 160148013, 160148014], [160148015], [160148016], [160148017, 160148018]]</t>
-  </si>
-  <si>
-    <t>[[160147828, 160147829, 160147830, 160147831], [160147832], [160147833, 160147834, 160147835], [160147836], [160147837], [160147838, 160147839]]</t>
-  </si>
-  <si>
-    <t>[[160148056, 160148057, 160148058], [160148059, 160148079, 160148060, 160148061], [160148062], [160148063], [160148064, 160148065]]</t>
-  </si>
-  <si>
-    <t>[[160147905, 160147906, 160147907, 160147908], [160147909, 160147910, 160147911, 160147912], [160147913], [160147914, 160147915, 160147916], [160147917], [160147918, 160147919]]</t>
-  </si>
-  <si>
-    <t>[[160147971, 160147972, 160147973], [160147974], [160147975, 160147976, 160147977, 160147978], [160147979, 160147980, 160147981], [160147982], [160147983], [160147984, 160147985]]</t>
-  </si>
-  <si>
-    <t>[[160147789, 160147790, 160147791, 160147792], [160147793], [160147794, 160147795, 160147796], [160147797], [160147798], [160147799, 160147800]]</t>
-  </si>
-  <si>
-    <t>[[160148019, 160148020, 160148021, 160148022], [160148023], [160148024, 160148025, 160148026], [160148027], [160148028], [160148029, 160148030]]</t>
-  </si>
-  <si>
-    <t>[[160147840, 160147841, 160147842], [160147843], [160147844, 160147845, 160147846, 160147847], [160147848], [160147849], [160147850, 160147851]]</t>
-  </si>
-  <si>
-    <t>[[160148066, 160148067, 160148068], [160148069], [160148070, 160148071, 160148072, 160148073], [160148074], [160148075, 160148076], [160148077, 160148078]]</t>
-  </si>
-  <si>
-    <t>[[160148080, 160148081, 160148082, 160148083, 160148084], [160148085, 160148086, 160148087, 160148088], [160148089], [160148090, 160148091, 160148130], [160148092], [160148093, 160148094]]</t>
-  </si>
-  <si>
-    <t>[[160148132, 160148131, 160148169, 160148133], [160148403, 160148134, 160148170, 160148171], [160148135], [160148136, 160148137, 160148172], [160148138], [160148139, 160148173], [160148174, 160148140]]</t>
-  </si>
-  <si>
-    <t>[[160179450, 160148207, 160148208, 160148209], [160148210], [160179451, 160148211, 160148213, 160148214], [160148215], [160148216, 160148217], [160148218, 160148219]]</t>
-  </si>
-  <si>
-    <t>[[160148721, 160148188, 160148189, 160148190], [160148191], [160148192, 160148193, 160148194, 160148722], [160148195], [160148196, 160148197], [160148198, 160148199]]</t>
-  </si>
-  <si>
-    <t>[[160148723, 160148288, 160148289, 160148326], [160148290], [160148327, 160148291, 160148724, 160148328, 160148293], [160148294], [160148295], [160148296, 160148297]]</t>
-  </si>
-  <si>
-    <t>[[160148336, 160148337, 160148338, 160148339], [160148340], [160148341, 160148342, 160148343, 160148344], [160148345, 160148346, 160148347, 160148348], [160148349], [160148350, 160148351], [160148352, 160148353]]</t>
-  </si>
-  <si>
-    <t>[[160148095, 160148096, 160148097], [160148098], [160179459, 160148099, 160148100, 160148101], [160148102], [160148103, 160148104], [160148105, 160148106]]</t>
-  </si>
-  <si>
-    <t>[[160148400, 160148141, 160148175, 160148142], [160148143, 160148176, 160148144, 160148177], [160148145], [160148146, 160148178], [160148179, 160148147]]</t>
-  </si>
-  <si>
-    <t>[[160179452, 160148221, 160148222, 160148223], [160148224], [160179453, 160148225, 160148226, 160148227, 160148228], [160148229], [160148230], [160148231, 160148232]]</t>
-  </si>
-  <si>
-    <t>[[160148200, 160148201, 160148202, 160148203], [160148204], [160148205, 160148206, 160148212, 160148220], [160148233], [160148246, 160148258], [160148259, 160148260], [160148261, 160148262]]</t>
-  </si>
-  <si>
-    <t>[[160179461, 160148298, 160148299, 160148300], [160148301], [160148329, 160148302, 160148303, 160148330], [160148304], [160148305], [160148306, 160148307]]</t>
-  </si>
-  <si>
-    <t>[[160148354, 160148355, 160148356, 160148357], [160148358], [160148359, 160148360, 160148361], [160148362, 160148363, 160148364, 160148365], [160148366], [160148367, 160148368, 160148369], [160148370, 160148371]]</t>
-  </si>
-  <si>
-    <t>[[160148107, 160148108, 160148109], [160148110], [160179458, 160148111, 160148112, 160148113], [160148114], [160148115, 160148116], [160148117, 160148118]]</t>
-  </si>
-  <si>
-    <t>[[160148148, 160148149, 160148180, 160148181], [160148150, 160148151, 160148152, 160148182], [160148153], [160148154, 160148183, 160148155], [160148156], [160148157, 160148158], [160148184, 160148159]]</t>
-  </si>
-  <si>
-    <t>[[160148234, 160148235, 160148236, 160148237], [160148238], [160179454, 160148239, 160148240, 160148241], [160148242], [160148243], [160148244, 160148245]]</t>
-  </si>
-  <si>
-    <t>[[160148263, 160148264, 160148265], [160148813, 160148266, 160148267, 160148268], [160148269], [160148814, 160148270, 160148271, 160148272], [160148273], [160148274], [160148275, 160148276]]</t>
-  </si>
-  <si>
-    <t>[[160148308, 160179462, 160148309], [160148331, 160148310, 160148399, 160148332, 160148816], [160148311], [160148312, 160148333, 160148397, 160179463], [160148313], [160148314], [160148315, 160148316]]</t>
-  </si>
-  <si>
-    <t>[[160148372, 160148373, 160148374, 160148401], [160148375, 160148376, 160148377, 160148378], [160148379], [160148380, 160148381], [160148382, 160148383]]</t>
-  </si>
-  <si>
-    <t>[[160179457, 160148119, 160148120, 160148121], [160148122], [160179456, 160148123, 160148124, 160148125], [160148126], [160148127], [160148128, 160148129]]</t>
-  </si>
-  <si>
-    <t>[[160148160, 160148161, 160148162, 160148185], [160148163], [160148164, 160148165, 160148186], [160148166], [160148167, 160148168], [160148187, 160148404]]</t>
-  </si>
-  <si>
-    <t>[[160179455, 160148247, 160148248, 160148249, 160148250], [160148251], [160148252, 160148253, 160148254, 160148255], [160148335, 160148256], [160148402, 160148257]]</t>
-  </si>
-  <si>
-    <t>[[160179460, 160148277, 160148278, 160148279], [160148280], [160148281, 160148282, 160148283, 160148284], [160148285], [160148286, 160148287]]</t>
-  </si>
-  <si>
-    <t>[[160179464, 160148317, 160148334, 160148318], [160148319], [160148320, 160148321, 160179465, 160148322, 160148398], [160148323], [160148324, 160148325]]</t>
-  </si>
-  <si>
-    <t>[[160148384, 160148385, 160148386, 160148387], [160148388], [160148389, 160148390, 160148391, 160148392, 160148393], [160148394], [160148395, 160148396]]</t>
-  </si>
-  <si>
-    <t>[[160148725, 160148405, 160148406, 160148407], [160148408], [160148409, 160148410, 160148726], [160148411, 160148412, 160148413, 160148414], [160148415], [160148416, 160148417], [160148418, 160148419]]</t>
-  </si>
-  <si>
-    <t>[[160148555, 160148556, 160148557, 160148558], [160148559], [160148560, 160148561, 160148562, 160148563], [160148564], [160148565], [160148566, 160148567]]</t>
-  </si>
-  <si>
-    <t>[[160179467, 160148505, 160148506, 160148507], [160148508], [160179468, 160148509, 160148510, 160148511, 160148512], [160148513], [160148516], [160148517, 160148518]]</t>
-  </si>
-  <si>
-    <t>[[160148611, 160148612, 160148613], [160148614], [160179473, 160148615, 160148616, 160148617], [160179474, 160148618, 160148619, 160148620], [160148621], [160148622], [160148623, 160148624]]</t>
-  </si>
-  <si>
-    <t>[[160148660, 160148661, 160148662, 160148663], [160148664], [160148665, 160148666, 160148667, 160148668], [160148669], [160148670], [160148671, 160148672]]</t>
-  </si>
-  <si>
-    <t>[[160148727, 160148456, 160148457, 160148458], [160148459], [160148463, 160148460, 160148464, 160148728], [160148461], [160148462], [160148465, 160148466]]</t>
-  </si>
-  <si>
-    <t>[[160179466, 160148420, 160148421, 160148422], [160148423], [160148424, 160148425, 160148426, 160148427], [160148428], [160148429], [160148430, 160148431]]</t>
-  </si>
-  <si>
-    <t>[[160179471, 160148568, 160148569, 160148570], [160148571], [160179472, 160148572, 160148573, 160148574], [160148575], [160148576], [160148577, 160148578]]</t>
-  </si>
-  <si>
-    <t>[[160148514, 160148515, 160148519, 160148520], [160148521], [160148522, 160148523, 160148524], [160148525], [160148526], [160148527, 160148528]]</t>
-  </si>
-  <si>
-    <t>[[160148625, 160179475, 160148626, 160148627], [160148628, 160148629, 160148630], [160148631, 160148632], [160148633, 160148634], [160148674, 160148635]]</t>
-  </si>
-  <si>
-    <t>[[160148673, 160148675, 160148676, 160148677, 160148678], [160148679], [160148680, 160148681, 160148682, 160148683], [160148684], [160148685], [160148686, 160148687]]</t>
-  </si>
-  <si>
-    <t>[[160148729, 160148468, 160148469, 160148470], [160148471], [160148472, 160148473, 160148474, 160148475, 160148730], [160148476], [160148477], [160148478, 160148479]]</t>
-  </si>
-  <si>
-    <t>[[160148817, 160148432, 160148433, 160148467], [160148434], [160148818, 160148435, 160148436, 160148437], [160148438], [160148439], [160148440, 160148441]]</t>
-  </si>
-  <si>
-    <t>[[160148579, 160148580, 160148581, 160148582], [160148583], [160148584, 160148585, 160148586], [160148587, 160148588, 160148589, 160148590, 160148591], [160148592], [160148593], [160148594, 160148595]]</t>
-  </si>
-  <si>
-    <t>[[160179469, 160148529, 160148530, 160148531], [160148532], [160179470, 160148533, 160148534, 160148535], [160148536], [160148537], [160148538, 160148539]]</t>
-  </si>
-  <si>
-    <t>[[160179476, 160148636, 160148637, 160148638], [160148639], [160148640, 160148641, 160148642, 160148643], [160148644], [160148645, 160148646]]</t>
-  </si>
-  <si>
-    <t>[[160148688, 160148689, 160148690, 160148691], [160148692], [160148693, 160148694, 160148695, 160148696], [160148697], [160148698], [160148699, 160148700]]</t>
-  </si>
-  <si>
-    <t>[[160148731, 160148480, 160148481, 160148482], [160148483], [160148484, 160148485, 160148486], [160148487, 160148488, 160148489, 160148490, 160148732], [160148491], [160148492], [160148493, 160148502]]</t>
-  </si>
-  <si>
-    <t>[[160148442, 160148443, 160148444, 160148445], [160148446, 160148447, 160148448, 160148449], [160148450, 160148451, 160148452], [160148453], [160148454, 160148455]]</t>
-  </si>
-  <si>
-    <t>[[160148596, 160148597, 160148598, 160148599], [160148600, 160148601, 160148602], [160148603], [160148604, 160148605, 160148606, 160148607], [160148608], [160148609, 160148610]]</t>
-  </si>
-  <si>
-    <t>[[160148540, 160148541, 160148542, 160148543], [160148544, 160148545, 160148546, 160148547, 160148548], [160148549, 160148550, 160148551], [160148552], [160148553, 160148554]]</t>
-  </si>
-  <si>
-    <t>[[160179477, 160148647, 160148648, 160148649], [160148650], [160179478, 160148651, 160148652, 160148653, 160148654], [160148655], [160148656, 160148657], [160148658, 160148659]]</t>
-  </si>
-  <si>
-    <t>[[160148701, 160148702, 160148703, 160148704, 160148705], [160148706], [160148707, 160148708, 160148709], [160148710], [160148711, 160148712]]</t>
-  </si>
-  <si>
-    <t>[[160148713, 160148494, 160148495, 160148496, 160148497], [160148714, 160148499, 160148498, 160148503], [160148500], [160148501, 160148504]]</t>
-  </si>
-  <si>
-    <t>[[160179479, 160179480, 160179481, 160179482], [160179483], [160179484, 160179485, 160179486, 160179487], [160179488], [160179489], [160179490, 160179491]]</t>
-  </si>
-  <si>
-    <t>[[160179533, 160179534, 160179535], [160179536, 160179537, 160179538, 160179539], [160179540, 160179541, 160179542], [160179543, 160179544], [160179545, 160179546], [160179547, 160179548]]</t>
-  </si>
-  <si>
-    <t>[[160179801, 160179802, 160179803, 160179804], [160179805], [160179806, 160179807, 160179808, 160179809], [160179810, 160179811, 160179812], [160179813], [160179814, 160179815, 160179816], [160179817, 160179818]]</t>
-  </si>
-  <si>
-    <t>[[160179667, 160179668, 160179669, 160179670, 160179671], [160179672, 160179673, 160179674, 160179675], [160179676], [160179680, 160179677, 160179678, 160179679], [160179681], [160179682, 160179683, 160179684], [160179685], [160179686, 160179687]]</t>
-  </si>
-  <si>
-    <t>[[160179745, 160179746, 160179747, 160179748], [160179749, 160179750, 160179751, 160179752], [160179753], [160179754], [160179755, 160179756]]</t>
-  </si>
-  <si>
-    <t>[[160179602, 160179603, 160179604, 160179605, 160179606], [160179607], [160179608, 160179609, 160179610, 160179611], [160179612, 160179613, 160179614, 160179615], [160179616, 160179617], [160179618, 160179619]]</t>
-  </si>
-  <si>
-    <t>[[160179492, 160179493, 160179494, 160179495], [160179496, 160179497, 160179498], [160179499], [160179500, 160179501]]</t>
-  </si>
-  <si>
-    <t>[[160179549, 160179550, 160179551, 160179552, 160179553], [160179554, 160179555, 160179556, 160179557], [160179558, 160179559, 160179560], [160179561], [160179562], [160179563, 160179564]]</t>
-  </si>
-  <si>
-    <t>[[160179819, 160179820, 160179821, 160179822, 160179823], [160179824, 160179825, 160179826, 160179827], [160179828], [160179829, 160179830, 160179831], [160179832, 160179833, 160179834, 160179835, 160179836], [160179837], [160179838, 160179839, 160179840], [160179841, 160179842]]</t>
-  </si>
-  <si>
-    <t>[[160179688, 160179689, 160179690], [160179691], [160179694, 160179692, 160179693], [160179695, 160179696, 160179697, 160179698], [160179702, 160179699, 160179700, 160179701], [160179703], [160179704], [160179705, 160179706]]</t>
-  </si>
-  <si>
-    <t>[[160179757, 160179758, 160179759, 160179760], [160179761, 160179762, 160179763, 160179764], [160179765, 160179766, 160179767, 160179768], [160179769], [160179770], [160179771, 160179772]]</t>
-  </si>
-  <si>
-    <t>[[160179620, 160179621, 160179622], [160179623], [160179626, 160179624, 160179625], [160179627], [160179628, 160179629, 160179630], [160179631], [160179632, 160179633], [160179634, 160179635]]</t>
-  </si>
-  <si>
-    <t>[[160179502, 160179503, 160179504, 160179505], [160179506], [160179507, 160179508, 160179509], [160179510, 160179511, 160179512], [160179513, 160179514], [160179515, 160179516]]</t>
-  </si>
-  <si>
-    <t>[[160179565, 160179566, 160179567, 160179568, 160179569], [160179570, 160179571, 160179572], [160179573, 160179574, 160179575], [160179576], [160179577], [160179578, 160179579]]</t>
-  </si>
-  <si>
-    <t>[[160179843, 160179844, 160179845, 160179846, 160179847], [160179848, 160179849, 160179850, 160179851], [160179852], [160179853, 160179854, 160179855], [160179856], [160179857, 160179858], [160179859, 160179860]]</t>
-  </si>
-  <si>
-    <t>[[160179707, 160179708, 160179709], [160179713, 160179710, 160179711, 160179712], [160179714], [160179715, 160179716, 160179717], [160179718, 160179719, 160179720, 160179721], [160179722], [160179723], [160179724, 160179725]]</t>
-  </si>
-  <si>
-    <t>[[160179773, 160179774, 160179775, 160179776], [160179777, 160179778, 160179779], [160179780, 160179781, 160179782, 160179783], [160179784], [160179785], [160179786, 160179787]]</t>
-  </si>
-  <si>
-    <t>[[160179636, 160179637, 160179638], [160179639, 160179640, 160179641, 160179643, 160179642], [160179644], [160179645, 160179647, 160179646], [160179648], [160179649], [160179650, 160179651]]</t>
-  </si>
-  <si>
-    <t>[[160179517, 160179518, 160179519], [160179520], [160179521, 160179522, 160179523, 160179524], [160179525, 160179526, 160179527], [160179528], [160179529, 160179530], [160179531, 160179532]]</t>
-  </si>
-  <si>
-    <t>[[160179580, 160179581, 160179582], [160179583, 160179584, 160179585, 160179586, 160179587, 160179588], [160179591, 160179589, 160179590, 160179592], [160179593, 160179594, 160179595], [160179596, 160179597], [160179598, 160179599], [160179600, 160179601]]</t>
-  </si>
-  <si>
-    <t>[[160179861, 160179862, 160179863, 160179864], [160179865, 160179866, 160179867], [160179868, 160179869, 160179870, 160179871], [160179872], [160179873, 160179874]]</t>
-  </si>
-  <si>
-    <t>[[160179726, 160179727, 160179728], [160179729, 160179730, 160179731, 160179732], [160179733], [160179734, 160179735, 160179736, 160179737], [160179738, 160179739, 160179740], [160179741], [160179742], [160179743, 160179744]]</t>
-  </si>
-  <si>
-    <t>[[160179788, 160179789, 160179790], [160179791, 160179792, 160179793], [160179794, 160179795, 160179796, 160179797], [160179798], [160179799, 160179800]]</t>
-  </si>
-  <si>
-    <t>[[160179652, 160179653, 160179654, 160179655, 160179656], [160179657], [160179658, 160179659, 160179660], [160179661, 160179662, 160179663], [160179664], [160179665, 160179666]]</t>
-  </si>
-  <si>
-    <t>[[160179875, 160179876, 160179877], [160179878, 160179879, 160179880, 160179881], [160179882], [160179885, 160179883, 160179884], [160179886], [160179887], [160179888, 160179889]]</t>
-  </si>
-  <si>
-    <t>[[160179930, 160179931, 160179932, 160179933], [160179934], [160179935, 160179936, 160179937], [160179938, 160179939], [160179940, 160179941]]</t>
-  </si>
-  <si>
-    <t>[[160179987, 160179988, 160179989], [160179990, 160179991, 160179992, 160179993], [160179994, 160179995, 160179996], [160179997], [160179998, 160179999, 160180000], [160180001], [160180002, 160180003], [160180004, 160180005]]</t>
-  </si>
-  <si>
-    <t>[[160180050, 160180051, 160180052], [160180053, 160180054, 160180055, 160180056], [160180057, 160180058, 160180059], [160180060, 160180061, 160180062, 160180063], [160180064], [160180065], [160180066, 160180067]]</t>
-  </si>
-  <si>
-    <t>[[160180157, 160180158, 160180159, 160180160], [160180161, 160180162, 160180163, 160180164], [160180165, 160180166, 160180167, 160180168], [160180169], [160180170, 160180171]]</t>
-  </si>
-  <si>
-    <t>[[160180107, 160180108, 160180109], [160180110, 160180111, 160180112], [160180113], [160180114], [160180115, 160180116]]</t>
-  </si>
-  <si>
-    <t>[[160179890, 160179891, 160179892, 160179893], [160179894, 160179895, 160179896], [160179897], [160179900, 160179898, 160179899], [160179901], [160179902], [160179903, 160179904]]</t>
-  </si>
-  <si>
-    <t>[[160179942, 160179943, 160179944], [160179945], [160179946, 160179947, 160179948, 160179949], [160179950], [160179951, 160179952, 160179953, 160179954], [160179955], [160179956], [160179957, 160179958]]</t>
-  </si>
-  <si>
-    <t>[[160180006, 160180007, 160180008], [160180009, 160180010, 160180011, 160180012], [160180013, 160180014, 160180015, 160180016], [160180017], [160180018, 160180019], [160180020, 160180021]]</t>
-  </si>
-  <si>
-    <t>[[160180068, 160180069, 160180070], [160180071, 160180072, 160180073, 160180074, 160180075], [160180076, 160180077, 160180078], [160180079], [160180080], [160180081, 160180082]]</t>
-  </si>
-  <si>
-    <t>[[160180172, 160180173, 160180174, 160180175], [160180176, 160180177, 160180178, 160180179, 160180180], [160180181], [160180182, 160180183]]</t>
-  </si>
-  <si>
-    <t>[[160180117, 160180118, 160180119, 160180120], [160180121, 160180122, 160180123, 160180124], [160180125], [160180126, 160180127]]</t>
-  </si>
-  <si>
-    <t>[[160179905, 160179906, 160179907, 160179908, 160179909], [160179910], [160179911, 160179912, 160179913, 160179914], [160179915], [160179916], [160179917, 160179918]]</t>
-  </si>
-  <si>
-    <t>[[160179959, 160179960, 160179961, 160179962], [160179963], [160179967, 160179964, 160179965, 160179966], [160179968], [160179969, 160179970, 160179971], [160179972], [160179973, 160179974]]</t>
-  </si>
-  <si>
-    <t>[[160180022, 160180023, 160180024, 160180025], [160180026], [160180027, 160180028, 160180029], [160180030], [160180031], [160180032, 160180033]]</t>
-  </si>
-  <si>
-    <t>[[160180083, 160180084, 160180085, 160180086, 160180087], [160180088, 160180089, 160180090, 160180091], [160180092], [160180093, 160180094]]</t>
-  </si>
-  <si>
-    <t>[[160180184, 160180185, 160180186], [160180187, 160180188, 160180189], [160180190, 160180191, 160180192, 160180193], [160180194], [160180195], [160180196, 160180197]]</t>
-  </si>
-  <si>
-    <t>[[160180128, 160180129, 160180130], [160180131], [160180132, 160180133, 160180134], [160180135], [160180136], [160180137, 160180138]]</t>
-  </si>
-  <si>
-    <t>[[160179919, 160179920, 160179921], [160179925, 160179922, 160179923, 160179924], [160179926], [160179927], [160179928, 160179929]]</t>
-  </si>
-  <si>
-    <t>[[160179975, 160179976, 160179977, 160179978], [160179979], [160179980, 160179981, 160179982], [160179983], [160179984], [160179985, 160179986]]</t>
-  </si>
-  <si>
-    <t>[[160180034, 160180035, 160180036, 160180037], [160180038, 160180039, 160180040], [160180041], [160180042, 160180043, 160180044], [160180045, 160180046, 160180047], [160180048, 160180049]]</t>
-  </si>
-  <si>
-    <t>[[160180095, 160180096, 160180097, 160180098], [160180099, 160180102, 160180100, 160180101], [160180103], [160180104], [160180105, 160180106]]</t>
-  </si>
-  <si>
-    <t>[[160180198, 160180199, 160180200, 160180201], [160180202, 160180203, 160180204], [160180205, 160180206, 160180207, 160180208], [160180209], [160180210], [160180211, 160180212]]</t>
-  </si>
-  <si>
-    <t>[[160180139, 160180140, 160180141, 160180142], [160180143, 160180144, 160180145, 160180146], [160180147, 160180148, 160180149, 160180150], [160180151, 160180152, 160180153], [160180154], [160180155, 160180156]]</t>
-  </si>
-  <si>
-    <t>[[160180213, 160180214, 160180215], [160180216, 160180217, 160180218, 160180219], [160180220, 160180221], [160180222, 160180223]]</t>
-  </si>
-  <si>
-    <t>[[160180263, 160180264, 160180265, 160180266], [160180267, 160180268, 160180269, 160180270], [160180271], [160180272, 160180273], [160180274, 160180275]]</t>
-  </si>
-  <si>
-    <t>[[160180318, 160180319, 160180320], [160180321], [160180322, 160180323, 160180324, 160180325], [160180326, 160180327, 160180328, 160180329], [160180330], [160180331, 160180332], [160180333, 160180334]]</t>
-  </si>
-  <si>
-    <t>[[160180387, 160180388, 160180389], [160180390], [160180391, 160180392, 160180393, 160180394], [160180395], [160180396, 160180397, 160180398], [160180399], [160180400], [160180401, 160180402]]</t>
-  </si>
-  <si>
-    <t>[[160180503, 160180504, 160180505], [160180506, 160180507, 160180508, 160180509], [160180510], [160180511, 160180512, 160180513, 160180514], [160180515], [160180516], [160180517, 160180518]]</t>
-  </si>
-  <si>
-    <t>[[160180446, 160180447, 160180448, 160180449], [160180450], [160180451, 160180452, 160180453], [160180454], [160180455, 160180456, 160180457], [160180458], [160180459], [160180460, 160180461]]</t>
-  </si>
-  <si>
-    <t>[[160180224, 160180225, 160180226, 160180227], [160180228, 160180229, 160180230], [160180231, 160180232, 160180233], [160180234, 160180235, 160180236], [160180237, 160180238, 160180239], [160180240, 160180241]]</t>
-  </si>
-  <si>
-    <t>[[160180276, 160180277, 160180278], [160180279], [160180280, 160180281, 160180283, 160180282], [160180284], [160180285], [160180286, 160180287]]</t>
-  </si>
-  <si>
-    <t>[[160180335, 160180336, 160180337, 160180338], [160180339, 160180340, 160180341, 160180342], [160180343], [160180344, 160180345, 160180346], [160180347], [160180348, 160180349], [160180350, 160180351]]</t>
-  </si>
-  <si>
-    <t>[[160180405, 160180403, 160180404], [160180406], [160180407, 160180408, 160180409], [160180410], [160180411, 160180412, 160180413, 160180414], [160180415], [160180416, 160180417], [160180418, 160180419]]</t>
-  </si>
-  <si>
-    <t>[[160180519, 160180520, 160180521], [160180522, 160180523, 160180524, 160180525], [160180526, 160180527, 160180528], [160180529], [160180530], [160180531, 160180532]]</t>
-  </si>
-  <si>
-    <t>[[160180462, 160180463, 160180464], [160180465], [160180466, 160180467, 160180468], [160180469], [160180470], [160180471, 160180472]]</t>
-  </si>
-  <si>
-    <t>[[160180242, 160180243, 160180244], [160180245, 160180246, 160180247], [160180248, 160180249], [160180250, 160180251]]</t>
-  </si>
-  <si>
-    <t>[[160180288, 160180289, 160180290], [160180291, 160180292, 160180293, 160180294], [160180295, 160180296, 160180297], [160180298, 160180299]]</t>
-  </si>
-  <si>
-    <t>[[160180352, 160180353, 160180354, 160180355], [160180356, 160180357, 160180358, 160180359, 160180360], [160180361], [160180362, 160180363, 160180364], [160180365], [160180366, 160180367], [160180368, 160180369]]</t>
-  </si>
-  <si>
-    <t>[[160180420, 160180421, 160180422], [160180423], [160180424, 160180425, 160180426], [160180427], [160180428, 160180429, 160180430, 160180431], [160180432], [160180433, 160180434], [160180435, 160180436]]</t>
-  </si>
-  <si>
-    <t>[[160180533, 160180534, 160180535], [160180536, 160180537, 160180538], [160180539], [160180540, 160180541, 160180542, 160180543], [160180544], [160180545], [160180546, 160180547]]</t>
-  </si>
-  <si>
-    <t>[[160180473, 160180474, 160180475], [160180476], [160180477, 160180478, 160180479], [160180480], [160180481, 160180482, 160180483, 160180484], [160180485], [160180486, 160180487]]</t>
-  </si>
-  <si>
-    <t>[[160180252, 160180253, 160180254, 160180255], [160180256, 160180257, 160180258, 160180259], [160180260], [160180261, 160180262]]</t>
-  </si>
-  <si>
-    <t>[[160180300, 160180301, 160180302], [160180303], [160180304, 160180305, 160180306, 160180307], [160180308], [160180309, 160180310, 160180311, 160180312], [160180313], [160180314, 160180315], [160180316, 160180317]]</t>
-  </si>
-  <si>
-    <t>[[160180370, 160180371, 160180372, 160180373, 160180374], [160180375, 160180376, 160180377, 160180378], [160180379, 160180380, 160180381], [160180382], [160180383, 160180384], [160180385, 160180386]]</t>
-  </si>
-  <si>
-    <t>[[160180437, 160180438, 160180439], [160180440, 160180441, 160180442], [160180443], [160180444, 160180445]]</t>
-  </si>
-  <si>
-    <t>[[160180548, 160180549, 160180550], [160180551, 160180552, 160180553], [160180554], [160180555], [160180556, 160180557]]</t>
-  </si>
-  <si>
-    <t>[[160180488, 160180489, 160180490], [160180491], [160180492, 160180493, 160180494], [160180495], [160180496, 160180497, 160180498], [160180499], [160180500], [160180501, 160180502]]</t>
-  </si>
-  <si>
-    <t>[[160180610, 160180611, 160180612], [160180613, 160180614, 160180615], [160180616, 160180617, 160180618], [160180619], [160180620], [160180621, 160180622]]</t>
-  </si>
-  <si>
-    <t>[[160180782, 160180783, 160180784], [160180785, 160180786, 160180787], [160180788, 160180789, 160180790], [160180791], [160180792, 160180793], [160180794, 160180795]]</t>
-  </si>
-  <si>
-    <t>[[160180726, 160180727, 160180728, 160180729], [160180730, 160180731, 160180732], [160180733, 160180734, 160180735], [160180736], [160180737, 160180738], [160180739, 160180740]]</t>
-  </si>
-  <si>
-    <t>[[160180839, 160180840, 160180841, 160180842], [160180843, 160180844, 160180845], [160180846, 160180847, 160180848], [160180849], [160180850, 160180851], [160180852, 160180853]]</t>
-  </si>
-  <si>
-    <t>[[160180662, 160180663, 160180664, 160180665, 160180666], [160180667, 160180668, 160180669, 160180670], [160180671, 160180672, 160180673], [160180674], [160180675, 160180676, 160180677], [160180678, 160180679]]</t>
-  </si>
-  <si>
-    <t>[[160180558, 160180559, 160180560], [160180562, 160180561], [160180563, 160180564, 160180565], [160180566], [160180567, 160180568], [160180569, 160180570]]</t>
-  </si>
-  <si>
-    <t>[[160180625, 160180623, 160180624], [160180626, 160180627, 160180628], [160180629], [160180630, 160180631, 160180632], [160180633], [160180634], [160180635, 160180636]]</t>
-  </si>
-  <si>
-    <t>[[160180796, 160180797, 160180798], [160180799, 160180800, 160180801, 160180802], [160180803, 160180804, 160180805], [160180806], [160180807, 160180808], [160180809, 160180810]]</t>
-  </si>
-  <si>
-    <t>[[160180741, 160180742, 160180743], [160180744, 160180745, 160180746, 160180747], [160180748, 160180749, 160180750], [160180751], [160180752, 160180753], [160180754, 160180755]]</t>
-  </si>
-  <si>
-    <t>[[160180854, 160180855, 160180856], [160180857, 160180858, 160180859], [160180860, 160180861, 160180862], [160180863], [160180864, 160180865], [160180866, 160180867]]</t>
-  </si>
-  <si>
-    <t>[[160180680, 160180681, 160180682], [160180683, 160180684, 160180685], [160180686, 160180687, 160180688], [160180689], [160180690], [160180691, 160180692]]</t>
-  </si>
-  <si>
-    <t>[[160180571, 160180572, 160180573], [160180574, 160180575, 160180576], [160180577, 160180578], [160180579], [160180580], [160180581], [160180582, 160180583]]</t>
-  </si>
-  <si>
-    <t>[[160180637, 160180638, 160180639], [160180640, 160180641, 160180642], [160180643, 160180644, 160180645], [160180646], [160180647], [160180648, 160180649]]</t>
-  </si>
-  <si>
-    <t>[[160180811, 160180812, 160180813, 160180814], [160180815, 160180816, 160180817], [160180818, 160180819, 160180820], [160180821], [160180822], [160180823, 160180824]]</t>
-  </si>
-  <si>
-    <t>[[160180756, 160180757, 160180758], [160180759, 160180760, 160180761, 160180762], [160180763, 160180764], [160180766, 160180765]]</t>
-  </si>
-  <si>
-    <t>[[160180868, 160180869, 160180870], [160180871, 160180872, 160180873], [160180874], [160180875, 160180876], [160180877, 160180878]]</t>
-  </si>
-  <si>
-    <t>[[160180693, 160180696, 160180694, 160180695], [160180699, 160180697, 160180698], [160180700, 160180701, 160180702], [160180703, 160180704], [160180705, 160180706], [160180707, 160180708]]</t>
-  </si>
-  <si>
-    <t>[[160180584, 160180585, 160180586], [160180587, 160180588, 160180589], [160180590, 160180592, 160180591], [160180593], [160180594], [160180595, 160180596]]</t>
-  </si>
-  <si>
-    <t>[[160180650, 160180651, 160180652], [160180653, 160180655, 160180654], [160180656, 160180657, 160180658], [160180659], [160180660, 160180661]]</t>
-  </si>
-  <si>
-    <t>[[160180825, 160180826, 160180827], [160180828, 160180829, 160180830], [160180831, 160180832, 160180833], [160180834], [160180835, 160180836], [160180837, 160180838]]</t>
-  </si>
-  <si>
-    <t>[[160180767, 160180768, 160180769], [160180770, 160180771, 160180772], [160180773, 160180774, 160180775], [160180776, 160180777], [160180778, 160180779], [160180780, 160180781]]</t>
-  </si>
-  <si>
-    <t>[[160180879, 160180880, 160180881], [160180882, 160180883, 160180884], [160180885, 160180886, 160180887], [160180888], [160180889, 160180890]]</t>
-  </si>
-  <si>
-    <t>[[160180709, 160180710, 160180711], [160180712, 160180713, 160180714], [160180715, 160180716, 160180717], [160180718, 160180719, 160180720], [160180721], [160180722, 160180723], [160180724, 160180725]]</t>
-  </si>
-  <si>
-    <t>[[160180597, 160180598, 160180599], [160180602, 160180600, 160180601], [160180603, 160180604, 160180605], [160180606], [160180607], [160180608, 160180609]]</t>
+    <t>[160140910, 160140911, 160140912, 160140913, 160140914, 160140915, 160140916, 160140917, 160140918, 160140919, 160140920, 160140921]</t>
+  </si>
+  <si>
+    <t>[160140969, 160140970, 160140971, 160140972, 160140973, 160140974, 160140975, 160140976, 160140977, 160140978, 160140979]</t>
+  </si>
+  <si>
+    <t>[160141024, 160141025, 160141026, 160141027, 160141028, 160141669, 160141670, 160141671, 160141032, 160141672, 160141030, 160141673, 160141674, 160141021, 160141022, 160141023]</t>
+  </si>
+  <si>
+    <t>[160141690, 160141065, 160141066, 160141067, 160141068, 160141689, 160141070, 160141071, 160141072, 160141073, 160141682, 160141683, 160141684, 160141685, 160141686, 160141687, 160141688, 160141074, 160141076]</t>
+  </si>
+  <si>
+    <t>[160141120, 160141122, 160141704, 160141705, 160141706, 160141707, 160141109, 160141110, 160141111, 160141112, 160141113, 160141114, 160141115, 160141116, 160141117, 160141118, 160141119]</t>
+  </si>
+  <si>
+    <t>[160141156, 160141157, 160141158, 160141159, 160141160, 160141161, 160141162, 160141163, 160141165, 160141166, 160141717, 160141718, 160141719, 160141720, 160141721]</t>
+  </si>
+  <si>
+    <t>[160140928, 160140929, 160140930, 160140931, 160140932, 160140933, 160140922, 160140923, 160140924, 160140925, 160140926, 160140927]</t>
+  </si>
+  <si>
+    <t>[160140992, 160140993, 160140994, 160140980, 160140981, 160140982, 160140983, 160140984, 160140985, 160140986, 160140987, 160140988, 160140989, 160140990, 160140991]</t>
+  </si>
+  <si>
+    <t>[160141033, 160141034, 160141035, 160141036, 160141037, 160141038, 160141039, 160141675, 160141041, 160141042, 160141676]</t>
+  </si>
+  <si>
+    <t>[160141083, 160141077, 160141078, 160141079, 160141080, 160141081, 160141082, 160141691, 160141084, 160141692, 160141086, 160141693]</t>
+  </si>
+  <si>
+    <t>[160141123, 160141124, 160141125, 160141126, 160141127, 160141128, 160141129, 160141130, 160141708, 160141132, 160141133, 160141709, 160141710]</t>
+  </si>
+  <si>
+    <t>[160141167, 160141168, 160141169, 160141170, 160141171, 160141172, 160141173, 160141174, 160141176, 160141177, 160141722, 160141723, 160141724]</t>
+  </si>
+  <si>
+    <t>[160140934, 160140935, 160140936, 160140937, 160140938, 160140939, 160140940, 160140941, 160140942, 160140943, 160140944, 160140945, 160140946, 160140947, 160140948, 160140949, 160140950, 160140951, 160140952]</t>
+  </si>
+  <si>
+    <t>[160140995, 160140996, 160140997, 160140998, 160140999, 160141000, 160141001, 160141002, 160141003, 160141004, 160141005, 160141006]</t>
+  </si>
+  <si>
+    <t>[160141677, 160141678, 160141043, 160141044, 160141045, 160141046, 160141047, 160141048, 160141049, 160141050, 160141052, 160141053]</t>
+  </si>
+  <si>
+    <t>[160141088, 160141089, 160141696, 160141091, 160141092, 160141699, 160141700, 160141701, 160141093, 160141095, 160141697, 160141698, 160141694, 160141695]</t>
+  </si>
+  <si>
+    <t>[160141134, 160141135, 160141136, 160141137, 160141138, 160141139, 160141140, 160141711, 160141141, 160141143, 160141144, 160141712, 160141713]</t>
+  </si>
+  <si>
+    <t>[160141184, 160141185, 160141187, 160141188, 160141189, 160141726, 160141725, 160141178, 160141179, 160141180, 160141181, 160141182, 160141183]</t>
+  </si>
+  <si>
+    <t>[160140960, 160140961, 160140962, 160140963, 160140964, 160140965, 160140966, 160140967, 160140968, 160140953, 160140954, 160140955, 160140956, 160140957, 160140958, 160140959]</t>
+  </si>
+  <si>
+    <t>[160141007, 160141008, 160141009, 160141010, 160141011, 160141012, 160141013, 160141014, 160141015, 160141016, 160141017, 160141018, 160141019, 160141020]</t>
+  </si>
+  <si>
+    <t>[160141056, 160141057, 160141058, 160141059, 160141060, 160141061, 160141063, 160141064, 160141679, 160141680, 160141681, 160141054, 160141055]</t>
+  </si>
+  <si>
+    <t>[160141702, 160141703, 160141096, 160141097, 160141098, 160141099, 160141100, 160141101, 160141102, 160141103, 160141104, 160141105, 160141106, 160141108]</t>
+  </si>
+  <si>
+    <t>[160141152, 160141154, 160141155, 160141714, 160141715, 160141716, 160141145, 160141146, 160141147, 160141148, 160141149, 160141150, 160141151]</t>
+  </si>
+  <si>
+    <t>[160141728, 160141190, 160141191, 160141192, 160141193, 160141194, 160141195, 160141196, 160141197, 160141199, 160141200, 160141727]</t>
+  </si>
+  <si>
+    <t>[160140640, 160140641, 160140642, 160140643, 160140644, 160140645, 160140646, 160140647, 160141736, 160141737, 160141738, 160141739, 160140648, 160140650, 160140651, 160141741, 160141740]</t>
+  </si>
+  <si>
+    <t>[160140686, 160140687, 160140688, 160140689, 160140690, 160140691, 160140692, 160140693, 160140694, 160140695, 160140696, 160141748, 160140698, 160140699, 160141749]</t>
+  </si>
+  <si>
+    <t>[160140736, 160140737, 160140738, 160141760, 160140740, 160140741, 160141761, 160140729, 160140730, 160140731, 160140732, 160140733, 160140734, 160140735]</t>
+  </si>
+  <si>
+    <t>[160140770, 160140771, 160140772, 160140773, 160140774, 160140775, 160140776, 160140777, 160141770, 160141771, 160141772, 160140778, 160141769, 160140779, 160140781, 160140782, 160141774, 160141773]</t>
+  </si>
+  <si>
+    <t>[160141792, 160141793, 160141794, 160141795, 160141796, 160141797, 160141798, 160141799, 160140814, 160140815, 160140816, 160140817, 160140818, 160140819, 160140820, 160140821, 160140822, 160140824, 160140825, 160141790, 160141791]</t>
+  </si>
+  <si>
+    <t>[160140864, 160140865, 160140866, 160140867, 160140868, 160140869, 160140870, 160140871, 160140872, 160140873, 160140875, 160140876, 160141809, 160141810]</t>
+  </si>
+  <si>
+    <t>[160140652, 160140653, 160140654, 160140655, 160140656, 160140657, 160140658, 160140659, 160140660, 160141743, 160140662, 160140663, 160141742]</t>
+  </si>
+  <si>
+    <t>[160140704, 160140705, 160140706, 160140708, 160140709, 160141750, 160141751, 160140700, 160140701, 160140702, 160140703]</t>
+  </si>
+  <si>
+    <t>[160141762, 160141763, 160140742, 160140743, 160140744, 160140745, 160140746, 160140747, 160140749, 160140750]</t>
+  </si>
+  <si>
+    <t>[160146661, 160146662, 160146663, 160146664, 160140783, 160140784, 160140785, 160140786, 160140787, 160141775, 160141776, 160140790, 160141778]</t>
+  </si>
+  <si>
+    <t>[160140832, 160140833, 160140834, 160140835, 160140837, 160140838, 160141800, 160141801, 160141802, 160141803, 160140826, 160140827, 160140828, 160140830, 160140831]</t>
+  </si>
+  <si>
+    <t>[160140877, 160140878, 160140879, 160140880, 160140881, 160140882, 160140884, 160140885, 160141813, 160141812]</t>
+  </si>
+  <si>
+    <t>[160140673, 160140674, 160141744, 160141745, 160140664, 160140665, 160140666, 160140667, 160140668, 160140669, 160140670, 160140671]</t>
+  </si>
+  <si>
+    <t>[160140710, 160140711, 160140712, 160140713, 160140714, 160140715, 160140716, 160140717, 160140719, 160140720, 160141752, 160141753, 160141754, 160141755]</t>
+  </si>
+  <si>
+    <t>[160141764, 160141765, 160140751, 160140752, 160140753, 160140754, 160140755, 160140756, 160140758, 160140759]</t>
+  </si>
+  <si>
+    <t>[160140800, 160140802, 160140803, 160141779, 160141780, 160141781, 160141782, 160141783, 160140793, 160140794, 160140795, 160140796, 160140797, 160140798, 160140799]</t>
+  </si>
+  <si>
+    <t>[160140839, 160140840, 160140841, 160140842, 160140843, 160140844, 160146665, 160140846, 160140847, 160146666, 160141806, 160146667, 160140852, 160140853]</t>
+  </si>
+  <si>
+    <t>[160140896, 160140898, 160141815, 160140899, 160141816, 160141817, 160140895, 160140886, 160140887, 160140888, 160140889, 160140890, 160140891, 160141814, 160140893, 160140894, 160140892]</t>
+  </si>
+  <si>
+    <t>[160140675, 160140676, 160140677, 160140678, 160140679, 160140680, 160140681, 160140682, 160140684, 160140685, 160141746, 160141747]</t>
+  </si>
+  <si>
+    <t>[160140721, 160140722, 160140723, 160140724, 160140725, 160140727, 160140728, 160141756, 160141757, 160141758, 160141759]</t>
+  </si>
+  <si>
+    <t>[160140768, 160140769, 160141766, 160141767, 160141768, 160140760, 160140761, 160140762, 160140763, 160140764, 160140765, 160140766]</t>
+  </si>
+  <si>
+    <t>[160140804, 160140805, 160140806, 160140807, 160140808, 160140809, 160140810, 160140812, 160140813, 160141784, 160141785, 160141786, 160141787, 160141788, 160141789]</t>
+  </si>
+  <si>
+    <t>[160141807, 160141808, 160140854, 160140855, 160140856, 160140857, 160140858, 160140859, 160140860, 160140862, 160140863]</t>
+  </si>
+  <si>
+    <t>[160140900, 160140901, 160140902, 160140903, 160140904, 160140905, 160140906, 160140908, 160140909, 160141818, 160141819, 160141820]</t>
+  </si>
+  <si>
+    <t>[160141824, 160141821, 160140352, 160140353, 160140355, 160140356, 160141826, 160141825, 160141823, 160140345, 160140346, 160140347, 160140348, 160140349, 160141822, 160140351]</t>
+  </si>
+  <si>
+    <t>[160140391, 160140392, 160140393, 160140394, 160140395, 160141836, 160141837, 160140396, 160141835, 160140397, 160140399, 160140400, 160141838, 160141839]</t>
+  </si>
+  <si>
+    <t>[160140441, 160141850, 160140436, 160140437, 160140438, 160140439, 160140440, 160141849, 160140442, 160140443, 160140444, 160141851, 160140446, 160140447]</t>
+  </si>
+  <si>
+    <t>[160140486, 160140487, 160140488, 160140489, 160140490, 160140491, 160140492, 160140493, 160141862, 160140494, 160140495, 160140496, 160140498, 160140499, 160141863, 160141864]</t>
+  </si>
+  <si>
+    <t>[160140544, 160140545, 160140546, 160140547, 160140548, 160140549, 160140551, 160140552, 160141874, 160141875, 160141876, 160141877, 160141878, 160141879, 160140542, 160140543]</t>
+  </si>
+  <si>
+    <t>[160142724, 160141895, 160141897, 160141898, 160141899, 160140593, 160140594, 160140595, 160140596, 160140597, 160140598, 160140599, 160140600, 160140601, 160140602, 160140603, 160140605, 160140606]</t>
+  </si>
+  <si>
+    <t>[160141827, 160141828, 160140357, 160140358, 160140359, 160140360, 160140361, 160140362, 160140363, 160140364, 160140365, 160140366, 160140367, 160140368, 160140370, 160140371]</t>
+  </si>
+  <si>
+    <t>[160141840, 160140401, 160140402, 160140403, 160141842, 160141841, 160140406, 160141843, 160140408, 160140409, 160141844]</t>
+  </si>
+  <si>
+    <t>[160140448, 160140449, 160140450, 160140451, 160140452, 160140453, 160140454, 160140455, 160140456, 160140457, 160140458, 160140460, 160140461, 160141852, 160141853, 160141854]</t>
+  </si>
+  <si>
+    <t>[160140512, 160140513, 160141865, 160141866, 160141867, 160140500, 160140501, 160140502, 160140503, 160140504, 160140506, 160140507, 160140508, 160140509, 160140510]</t>
+  </si>
+  <si>
+    <t>[160140553, 160140554, 160140555, 160140556, 160140557, 160140558, 160140559, 160140560, 160140561, 160140562, 160140563, 160140565, 160140566, 160141880, 160141881, 160141882, 160141883, 160141884, 160141885]</t>
+  </si>
+  <si>
+    <t>[160140608, 160140609, 160140610, 160140611, 160140612, 160140613, 160140614, 160140616, 160140617, 160141900, 160141901, 160140607]</t>
+  </si>
+  <si>
+    <t>[160141829, 160141830, 160141831, 160141832, 160140372, 160140373, 160140374, 160140375, 160140376, 160140377, 160140378, 160140380, 160140381]</t>
+  </si>
+  <si>
+    <t>[160140416, 160140418, 160140419, 160141845, 160141846, 160140410, 160140411, 160140412, 160140413, 160140414, 160140415]</t>
+  </si>
+  <si>
+    <t>[160141856, 160141857, 160141858, 160141859, 160140462, 160140463, 160140464, 160140465, 160140466, 160140467, 160140468, 160140469, 160140470, 160140472, 160140473, 160141855]</t>
+  </si>
+  <si>
+    <t>[160140514, 160140515, 160140517, 160140518, 160140519, 160140520, 160140521, 160140522, 160140523, 160141868, 160140524, 160140526, 160140527, 160141870, 160141869]</t>
+  </si>
+  <si>
+    <t>[160141888, 160141889, 160140576, 160141891, 160140575, 160141890, 160140567, 160140568, 160140569, 160140570, 160140571, 160140572, 160140573, 160141886, 160141887]</t>
+  </si>
+  <si>
+    <t>[160140618, 160140619, 160140620, 160140622, 160141902, 160140623, 160140624, 160140625, 160140627, 160140628, 160141904, 160141903]</t>
+  </si>
+  <si>
+    <t>[160140384, 160140385, 160140386, 160140387, 160140389, 160140390, 160141833, 160141834, 160140382, 160140383]</t>
+  </si>
+  <si>
+    <t>[160140420, 160140421, 160140422, 160140423, 160140424, 160140425, 160140427, 160146668, 160140428, 160140429, 160146669, 160146670, 160146671, 160140433, 160140434, 160146672, 160141848]</t>
+  </si>
+  <si>
+    <t>[160140480, 160140481, 160140482, 160140484, 160140485, 160141861, 160141860, 160140474, 160140475, 160140476, 160140477, 160140478, 160140479]</t>
+  </si>
+  <si>
+    <t>[160146680, 160141871, 160140528, 160140529, 160146673, 160140531, 160140532, 160140533, 160141873, 160140535, 160140536, 160140537, 160146679, 160140540, 160140541]</t>
+  </si>
+  <si>
+    <t>[160140577, 160140578, 160140579, 160140580, 160140581, 160140582, 160141892, 160140583, 160140584, 160140585, 160140586, 160140587, 160140588, 160140589, 160140591, 160140592, 160141894, 160141893]</t>
+  </si>
+  <si>
+    <t>[160141906, 160146674, 160146675, 160146676, 160140629, 160140630, 160140631, 160140632, 160140633, 160140634, 160140635, 160146677, 160146678, 160140638, 160140639]</t>
+  </si>
+  <si>
+    <t>[160141920, 160141907, 160141908, 160141909, 160141910, 160141911, 160141912, 160141913, 160141914, 160141915, 160141916, 160141917, 160141918, 160141919]</t>
+  </si>
+  <si>
+    <t>[160141984, 160141985, 160141986, 160141987, 160141988, 160141989, 160141990, 160141975, 160141976, 160141977, 160141978, 160141979, 160141980, 160141981, 160141982, 160141983]</t>
+  </si>
+  <si>
+    <t>[160142050, 160142051, 160142052, 160146681, 160146682, 160146684, 160146683, 160142032, 160142033, 160142034, 160142035, 160142297, 160142037, 160142038, 160142039, 160142040, 160142041, 160142042, 160142043, 160142044, 160142045]</t>
+  </si>
+  <si>
+    <t>[160142112, 160142113, 160142115, 160142116, 160142117, 160142118, 160142119, 160142293, 160142294, 160142105, 160142107, 160142108, 160142109, 160142110, 160142111]</t>
+  </si>
+  <si>
+    <t>[160142240, 160142241, 160142242, 160142243, 160142244, 160142227, 160142228, 160142229, 160142230, 160142231, 160142232, 160142233, 160142234, 160142235, 160142236, 160142237, 160142238, 160142239]</t>
+  </si>
+  <si>
+    <t>[160142176, 160142177, 160142162, 160142163, 160142164, 160142165, 160142166, 160142167, 160142168, 160142169, 160142170, 160142171, 160142172, 160142173, 160142174, 160142175]</t>
+  </si>
+  <si>
+    <t>[160141921, 160141922, 160141923, 160141924, 160141925, 160141926, 160141927, 160141928, 160141929, 160141930, 160141931, 160141932, 160141933, 160141934, 160141935, 160141936, 160141937, 160141938, 160141939, 160141940]</t>
+  </si>
+  <si>
+    <t>[160141991, 160141992, 160141993, 160141994, 160141995, 160141996, 160141997, 160141998, 160141999, 160142000, 160142001, 160142002, 160142003]</t>
+  </si>
+  <si>
+    <t>[160142054, 160142055, 160142056, 160142057, 160142058, 160142059, 160142060, 160142061, 160142062, 160142064, 160142065, 160142066, 160142067, 160142068, 160142069, 160142070, 160142299]</t>
+  </si>
+  <si>
+    <t>[160142120, 160142121, 160142122, 160142123, 160142124, 160142125, 160142126, 160142127, 160142128, 160142135, 160142130, 160142132, 160142133, 160142134, 160142295, 160142296]</t>
+  </si>
+  <si>
+    <t>[160142245, 160142246, 160142247, 160142248, 160142249, 160142250, 160142251, 160142252, 160142254, 160142255, 160142256, 160142257, 160142258, 160142259, 160142260, 160142261, 160142262, 160142301]</t>
+  </si>
+  <si>
+    <t>[160142178, 160142179, 160142180, 160142181, 160142182, 160142183, 160142184, 160142185, 160142186, 160142187, 160142188, 160142189, 160142190, 160142191, 160142192]</t>
+  </si>
+  <si>
+    <t>[160141952, 160141953, 160141954, 160141955, 160141956, 160141957, 160141958, 160141959, 160141960, 160141941, 160141942, 160141943, 160141944, 160141945, 160141946, 160141947, 160141948, 160141949, 160141950, 160141951]</t>
+  </si>
+  <si>
+    <t>[160142016, 160142017, 160142018, 160142004, 160142005, 160142006, 160142007, 160142008, 160142009, 160142010, 160142011, 160142012, 160142013, 160142014, 160142015]</t>
+  </si>
+  <si>
+    <t>[160142080, 160142081, 160142082, 160142083, 160142084, 160142085, 160142086, 160142087, 160142071, 160142072, 160142073, 160142074, 160142075, 160142076, 160142077, 160142078, 160142079]</t>
+  </si>
+  <si>
+    <t>[160142144, 160142145, 160142146, 160142136, 160142137, 160142138, 160142139, 160142140, 160142141, 160142142, 160142143]</t>
+  </si>
+  <si>
+    <t>[160142272, 160142273, 160142274, 160142275, 160142276, 160142277, 160142263, 160142264, 160142265, 160142266, 160142267, 160142268, 160142269, 160142270, 160142271]</t>
+  </si>
+  <si>
+    <t>[160142208, 160142209, 160142210, 160142193, 160142194, 160142195, 160142196, 160142197, 160142198, 160142199, 160142200, 160142201, 160142202, 160142203, 160142204, 160142205, 160142206, 160142207]</t>
+  </si>
+  <si>
+    <t>[160141961, 160141962, 160141963, 160141964, 160141965, 160141966, 160141967, 160141968, 160141969, 160141970, 160141971, 160141972, 160141973, 160141974]</t>
+  </si>
+  <si>
+    <t>[160142019, 160142020, 160142021, 160142022, 160142023, 160142024, 160142025, 160142026, 160142027, 160142028, 160142029, 160142030, 160142031]</t>
+  </si>
+  <si>
+    <t>[160142088, 160142089, 160142090, 160142091, 160142092, 160142093, 160142094, 160142095, 160142096, 160142098, 160142099, 160142100, 160142101, 160142102, 160142103, 160142104, 160142300]</t>
+  </si>
+  <si>
+    <t>[160142147, 160142148, 160142149, 160142150, 160142151, 160142152, 160142153, 160142154, 160142155, 160142156, 160142157, 160142158, 160142159, 160142160, 160142161]</t>
+  </si>
+  <si>
+    <t>[160146688, 160146689, 160142725, 160142278, 160142279, 160142280, 160142281, 160142282, 160146694, 160142284, 160142288, 160142289, 160142291, 160146685, 160146686, 160146687]</t>
+  </si>
+  <si>
+    <t>[160146690, 160142211, 160142212, 160142213, 160142214, 160142215, 160146691, 160142217, 160142218, 160142219, 160146692, 160146693, 160142223, 160142224]</t>
+  </si>
+  <si>
+    <t>[160143328, 160143329, 160143330, 160143331, 160143332, 160143333, 160143334, 160143335, 160143336, 160143337, 160143338, 160143339, 160143340, 160143341, 160143323, 160143324, 160143325, 160143326, 160143327]</t>
+  </si>
+  <si>
+    <t>[160143589, 160143590, 160143591, 160143592, 160143593, 160143594, 160143595, 160143596, 160143597, 160143598]</t>
+  </si>
+  <si>
+    <t>[160143264, 160143265, 160143266, 160143267, 160143268, 160143269, 160143270, 160143271, 160143272, 160143273, 160143263]</t>
+  </si>
+  <si>
+    <t>[160143397, 160143398, 160143399, 160143400, 160143401, 160143402, 160143403, 160143404, 160143405, 160143406, 160143407, 160143408, 160143409, 160143410]</t>
+  </si>
+  <si>
+    <t>[160143631, 160143632, 160143633, 160143634, 160143635, 160143636, 160143637, 160143638, 160143639, 160143640, 160143641, 160143642, 160143643, 160143644]</t>
+  </si>
+  <si>
+    <t>[160143691, 160143692, 160143693, 160143694, 160143695, 160143696, 160143697, 160143698, 160143699, 160143700, 160143701, 160143702, 160143703, 160143704, 160143705, 160143706, 160143707, 160143708, 160143709, 160143710]</t>
+  </si>
+  <si>
+    <t>[160143342, 160143343, 160143344, 160143345, 160143346, 160143347, 160143348, 160143349, 160143350, 160143351]</t>
+  </si>
+  <si>
+    <t>[160143599, 160143600, 160143601, 160143602, 160143603, 160143604, 160143605, 160143606, 160143607, 160143608, 160143609]</t>
+  </si>
+  <si>
+    <t>[160143274, 160143275, 160143276, 160143277, 160143278, 160143279, 160143280, 160143281, 160143282, 160143283, 160143284, 160143285, 160143286, 160143287, 160143288, 160143289]</t>
+  </si>
+  <si>
+    <t>[160143424, 160143425, 160143426, 160143630, 160143411, 160143412, 160143413, 160143414, 160143415, 160143416, 160143417, 160143418, 160143420, 160143421, 160143422, 160143423]</t>
+  </si>
+  <si>
+    <t>[160143648, 160143649, 160143650, 160143651, 160143652, 160143653, 160143654, 160143655, 160143656, 160143657, 160143658, 160143659, 160143645, 160143646, 160143647]</t>
+  </si>
+  <si>
+    <t>[160143712, 160143713, 160143714, 160143715, 160143716, 160143717, 160143718, 160143719, 160143720, 160143721, 160143722, 160143711]</t>
+  </si>
+  <si>
+    <t>[160143360, 160143361, 160143362, 160143363, 160143364, 160143365, 160143366, 160143367, 160143352, 160143353, 160143354, 160143355, 160143356, 160143357, 160143358, 160143359]</t>
+  </si>
+  <si>
+    <t>[160143616, 160143617, 160143618, 160143619, 160143620, 160143621, 160143610, 160143611, 160143612, 160143613, 160143614, 160143615]</t>
+  </si>
+  <si>
+    <t>[160143296, 160143297, 160143298, 160143299, 160143300, 160143301, 160143302, 160143303, 160143304, 160143305, 160143290, 160143291, 160143292, 160143293, 160143294, 160143295]</t>
+  </si>
+  <si>
+    <t>[160143427, 160143428, 160143429, 160143430, 160143431, 160143432, 160143433, 160143434, 160143435, 160143436, 160143437, 160143438, 160143439, 160143440, 160143441, 160143442, 160143443, 160143444, 160143445, 160143446]</t>
+  </si>
+  <si>
+    <t>[160143660, 160143661, 160143662, 160143663, 160143664, 160143665, 160143666, 160143667, 160143668, 160143669, 160143670, 160143671, 160143672, 160143673, 160143674, 160143675]</t>
+  </si>
+  <si>
+    <t>[160143723, 160143724, 160143725, 160143726, 160143727, 160143728, 160143729, 160143730, 160143731, 160143732, 160143733, 160143734]</t>
+  </si>
+  <si>
+    <t>[160143368, 160143369, 160143370, 160143371, 160143372, 160143373, 160143374, 160143375, 160143376, 160143377, 160143378, 160143379, 160143380, 160143381, 160143382, 160143383, 160143384]</t>
+  </si>
+  <si>
+    <t>[160143622, 160143623, 160143624, 160143625, 160146697, 160143626, 160143627, 160143628, 160146698]</t>
+  </si>
+  <si>
+    <t>[160143306, 160143307, 160143308, 160143309, 160143310, 160143311, 160143312, 160143313, 160143314, 160143315, 160143316, 160143317, 160143318, 160143319, 160143320, 160143321, 160143322]</t>
+  </si>
+  <si>
+    <t>[160143456, 160143457, 160143447, 160143448, 160143449, 160143450, 160143451, 160143452, 160143453, 160143454, 160143455]</t>
+  </si>
+  <si>
+    <t>[160143680, 160143681, 160143682, 160143683, 160143684, 160143685, 160143686, 160146695, 160143688, 160143687, 160143689, 160146696, 160143676, 160143677, 160143678, 160143679]</t>
+  </si>
+  <si>
+    <t>[160143744, 160143745, 160143746, 160143747, 160143748, 160143749, 160143750, 160143751, 160143735, 160143736, 160143737, 160143738, 160143739, 160143740, 160143741, 160143742, 160143743]</t>
+  </si>
+  <si>
+    <t>[160143458, 160143459, 160143460, 160143461, 160143462, 160143463, 160143464, 160143465, 160143466, 160143467, 160143468, 160143469, 160143470, 160143471, 160143472]</t>
+  </si>
+  <si>
+    <t>[160143757, 160143758, 160143759, 160143760, 160143761, 160143762, 160143763, 160143764, 160143765, 160143766, 160143767, 160143768, 160143769, 160143770, 160143771, 160143772]</t>
+  </si>
+  <si>
+    <t>[160143523, 160143524, 160143525, 160143526, 160143527, 160143528, 160143529, 160143530, 160143531, 160143532, 160143533, 160143534, 160143535, 160143536, 160143537, 160143538]</t>
+  </si>
+  <si>
+    <t>[160143904, 160143905, 160143888, 160143889, 160143890, 160143891, 160143892, 160143893, 160143894, 160143895, 160143896, 160143897, 160143898, 160143899, 160143900, 160143901, 160143902, 160143903]</t>
+  </si>
+  <si>
+    <t>[160143817, 160143818, 160143819, 160143820, 160143821, 160143822, 160143823, 160143824, 160143825, 160143826, 160143827, 160143828, 160143829, 160143830, 160143831, 160143832, 160143833, 160143834, 160143949, 160143836, 160143837]</t>
+  </si>
+  <si>
+    <t>[160143952, 160143953, 160143954, 160143955, 160143956, 160143957, 160143958, 160143959, 160143960, 160143961, 160143962, 160143963]</t>
+  </si>
+  <si>
+    <t>[160143488, 160143489, 160143473, 160143474, 160143475, 160143476, 160143477, 160143478, 160143479, 160143480, 160143481, 160143482, 160143483, 160143484, 160143485, 160143486, 160143487]</t>
+  </si>
+  <si>
+    <t>[160143776, 160143777, 160143778, 160143779, 160143780, 160143781, 160143782, 160143783, 160143784, 160143785, 160143786, 160143773, 160143774, 160143775]</t>
+  </si>
+  <si>
+    <t>[160143552, 160143553, 160143554, 160143815, 160143539, 160143540, 160143541, 160143542, 160143543, 160143544, 160143545, 160143546, 160143547, 160143548, 160143549, 160143551]</t>
+  </si>
+  <si>
+    <t>[160143906, 160143907, 160143908, 160143909, 160143910, 160143911, 160143912, 160143913, 160143914, 160143915, 160143916, 160143917, 160143918, 160143919, 160143920, 160143921]</t>
+  </si>
+  <si>
+    <t>[160143840, 160143841, 160143842, 160143843, 160143844, 160143845, 160143846, 160143847, 160143848, 160143849, 160143850, 160143851, 160143853, 160143950, 160143854, 160143838, 160143839]</t>
+  </si>
+  <si>
+    <t>[160143968, 160143969, 160143970, 160143971, 160143972, 160143973, 160143974, 160143975, 160143976, 160143964, 160143965, 160143966, 160143967]</t>
+  </si>
+  <si>
+    <t>[160143490, 160143491, 160143492, 160143493, 160143494, 160143495, 160143496, 160143497, 160143498, 160143499, 160143500, 160143501, 160143502, 160143503, 160143504]</t>
+  </si>
+  <si>
+    <t>[160143787, 160143788, 160143789, 160143790, 160143791, 160143792, 160143793, 160143794, 160143795, 160143796, 160143797, 160143798, 160143799, 160143800]</t>
+  </si>
+  <si>
+    <t>[160143555, 160143556, 160143557, 160143558, 160143559, 160143560, 160143561, 160143562, 160143563, 160143564, 160143565, 160143566, 160143567, 160143568, 160143569, 160143570]</t>
+  </si>
+  <si>
+    <t>[160143922, 160143923, 160143924, 160143925, 160143926, 160143927, 160143928, 160143929, 160143930, 160143931, 160143932, 160143933, 160143934, 160143935]</t>
+  </si>
+  <si>
+    <t>[160143870, 160143855, 160143856, 160143857, 160143858, 160143859, 160143860, 160143861, 160143862, 160143863, 160143864, 160143865, 160143866, 160143868, 160143869, 160143951, 160143871]</t>
+  </si>
+  <si>
+    <t>[160143977, 160143978, 160143979, 160143980, 160143981, 160143982, 160143983, 160143984, 160143985, 160143986, 160143987, 160143988, 160143989, 160143990]</t>
+  </si>
+  <si>
+    <t>[160146704, 160143505, 160143506, 160143507, 160143508, 160143509, 160143510, 160143511, 160146705, 160146706]</t>
+  </si>
+  <si>
+    <t>[160143808, 160143809, 160143810, 160143811, 160143812, 160143813, 160143814, 160143801, 160143802, 160143803, 160143804, 160143805, 160143806, 160143807]</t>
+  </si>
+  <si>
+    <t>[160143584, 160143585, 160143586, 160148836, 160148837, 160143571, 160143572, 160143573, 160143574, 160143575, 160143576, 160143577, 160143578, 160143579, 160143580, 160143581, 160143582, 160143583]</t>
+  </si>
+  <si>
+    <t>[160143936, 160143937, 160143938, 160143939, 160143940, 160143941, 160143942, 160143943, 160143944, 160143945, 160143946, 160143947, 160143948]</t>
+  </si>
+  <si>
+    <t>[160143872, 160143873, 160143874, 160143875, 160143876, 160143877, 160143878, 160143879, 160143880, 160143881, 160143882, 160146699, 160146700, 160143883, 160143884, 160146703, 160146701, 160146702]</t>
+  </si>
+  <si>
+    <t>[160144000, 160144001, 160144002, 160144003, 160143991, 160143992, 160143993, 160143994, 160143995, 160143996, 160143997, 160143998]</t>
+  </si>
+  <si>
+    <t>[160146720, 160146721, 160146774, 160146771, 160146717, 160146772, 160146770, 160146707, 160146708, 160146709, 160146710, 160146711, 160146712, 160146713, 160146714, 160146715, 160146716, 160146773, 160146718, 160146719]</t>
+  </si>
+  <si>
+    <t>[160146893, 160146834, 160146835, 160146836, 160146837, 160146838, 160146839, 160146840, 160146841, 160146842, 160146843, 160146844, 160146845, 160146846]</t>
+  </si>
+  <si>
+    <t>[160146896, 160146897, 160146898, 160146899, 160146900, 160146901, 160146902, 160146903, 160146904, 160146905, 160146906, 160146907, 160146908, 160146909, 160146910]</t>
+  </si>
+  <si>
+    <t>[160146967, 160146954, 160146955, 160146956, 160146957, 160146958, 160147023, 160146959, 160146960, 160146961, 160146962, 160146963, 160146964, 160146965, 160146966, 160146968, 160146969, 160146970, 160146971]</t>
+  </si>
+  <si>
+    <t>[160147008, 160147009, 160147010, 160147011, 160147012, 160147013, 160147014, 160147015, 160147016, 160147017, 160147018, 160147019, 160147020, 160147021, 160147022, 160147024, 160147007]</t>
+  </si>
+  <si>
+    <t>[160146784, 160146785, 160146786, 160146787, 160146788, 160146789, 160146829, 160146830, 160146775, 160146776, 160146777, 160146778, 160146779, 160146780, 160146781, 160146782, 160146783]</t>
+  </si>
+  <si>
+    <t>[160146722, 160146723, 160146724, 160146725, 160146726, 160146727, 160146728, 160146729, 160146730, 160146731, 160146732, 160146733, 160146734, 160146735, 160146736, 160146737, 160146738, 160146739, 160146740, 160146741]</t>
+  </si>
+  <si>
+    <t>[160146848, 160146849, 160146850, 160146851, 160146852, 160146853, 160146854, 160146855, 160146856, 160146857, 160146858, 160146859, 160146860, 160146861, 160146847]</t>
+  </si>
+  <si>
+    <t>[160146912, 160146913, 160146914, 160146915, 160146916, 160146917, 160146918, 160146919, 160146920, 160146921, 160146922, 160146923, 160146924, 160146925, 160146911]</t>
+  </si>
+  <si>
+    <t>[160146976, 160146977, 160146978, 160146979, 160146980, 160146981, 160146982, 160146983, 160146984, 160146985, 160146986, 160146987, 160146988, 160146989, 160146990, 160146991, 160146972, 160146973, 160146974, 160146975]</t>
+  </si>
+  <si>
+    <t>[160147040, 160147043, 160147045, 160147046, 160147047, 160147050, 160147055, 160147056, 160147057, 160147026, 160147058, 160147059, 160147029, 160147060, 160147061, 160147032, 160147062, 160147037, 160147038]</t>
+  </si>
+  <si>
+    <t>[160146790, 160146791, 160146792, 160146793, 160146794, 160146795, 160146796, 160146797, 160146798, 160146831, 160146799, 160146800, 160146801]</t>
+  </si>
+  <si>
+    <t>[160146752, 160146753, 160146754, 160146755, 160146756, 160146828, 160146742, 160146743, 160146744, 160146745, 160146746, 160146747, 160146748, 160146749, 160146750, 160146751]</t>
+  </si>
+  <si>
+    <t>[160146871, 160146876, 160146894, 160146862, 160146864, 160146865, 160146866, 160146863, 160146867, 160146868, 160146869, 160146870, 160146872, 160146873, 160146895, 160146874, 160146875]</t>
+  </si>
+  <si>
+    <t>[160146926, 160146927, 160146928, 160146929, 160146930, 160146931, 160146932, 160146933, 160146934, 160146935, 160146936, 160146937, 160146938, 160146939]</t>
+  </si>
+  <si>
+    <t>[160146992, 160146993, 160146994, 160146995, 160146996, 160146997, 160146998, 160146999, 160147000, 160147001, 160147002, 160147003, 160147004, 160147005, 160147006]</t>
+  </si>
+  <si>
+    <t>[160147072, 160147073, 160147074, 160147075, 160147076, 160147077, 160147078, 160147079, 160147080, 160147081, 160147082, 160147083, 160147063, 160147064, 160147065, 160147066, 160147067, 160147068, 160147069, 160147070, 160147071]</t>
+  </si>
+  <si>
+    <t>[160146832, 160146833, 160146802, 160146803, 160146804, 160146805, 160146806, 160146807, 160146808, 160146809, 160146810, 160146811]</t>
+  </si>
+  <si>
+    <t>[160146757, 160146758, 160146759, 160146760, 160146761, 160146762, 160146763, 160146764, 160146765, 160146766, 160146767, 160146768, 160146769]</t>
+  </si>
+  <si>
+    <t>[160146880, 160146881, 160146882, 160146883, 160146884, 160146885, 160146886, 160146887, 160146888, 160146889, 160146890, 160146891, 160146892, 160146877, 160146878, 160146879]</t>
+  </si>
+  <si>
+    <t>[160146944, 160146945, 160146946, 160146947, 160146948, 160146949, 160146950, 160146951, 160146952, 160146953, 160146940, 160146941, 160146942, 160146943]</t>
+  </si>
+  <si>
+    <t>[160147041, 160147042, 160147044, 160147048, 160147049, 160147051, 160147052, 160147053, 160147054, 160147025, 160147027, 160147028, 160147030, 160147031, 160147033, 160147034, 160147035, 160147036, 160147039]</t>
+  </si>
+  <si>
+    <t>[160147084, 160147085, 160147086, 160147087, 160147088, 160147089, 160147090, 160147091, 160147092, 160147093, 160147094, 160147095, 160147096, 160147097, 160147098]</t>
+  </si>
+  <si>
+    <t>[160146816, 160146817, 160146818, 160146819, 160146820, 160146821, 160146822, 160146823, 160146824, 160146825, 160146826, 160146827, 160146812, 160146813, 160146814, 160146815]</t>
+  </si>
+  <si>
+    <t>[160147205, 160147206, 160147207, 160147208, 160147209, 160147210, 160147211, 160147212, 160147213, 160147214, 160147215, 160147216]</t>
+  </si>
+  <si>
+    <t>[160147264, 160147265, 160147266, 160147267, 160147268, 160147269, 160147257, 160147258, 160147259, 160147260, 160147261, 160147262, 160147263]</t>
+  </si>
+  <si>
+    <t>[160147311, 160147312, 160147313, 160147314, 160147315, 160147316, 160147317, 160147318, 160147319, 160147320, 160147321, 160147322, 160147323, 160147324]</t>
+  </si>
+  <si>
+    <t>[160147375, 160147376, 160147377, 160147378, 160147379, 160147380, 160147381, 160147382, 160147383, 160147384, 160147385, 160147386, 160147387]</t>
+  </si>
+  <si>
+    <t>[160147104, 160147105, 160147106, 160147107, 160147108, 160147109, 160147099, 160147100, 160147101, 160147102, 160147103]</t>
+  </si>
+  <si>
+    <t>[160147151, 160147152, 160147153, 160147154, 160147155, 160147156, 160147157, 160147158, 160147159, 160147160, 160147161, 160147162, 160147163, 160147164, 160147165]</t>
+  </si>
+  <si>
+    <t>[160147217, 160147218, 160147219, 160147220, 160147221, 160147222, 160147223, 160147224, 160147225, 160147226, 160147227, 160147228]</t>
+  </si>
+  <si>
+    <t>[160147270, 160147271, 160147272, 160147273, 160147274, 160147275, 160147276, 160147277, 160147278, 160147279, 160147280, 160147281, 160147282, 160147283, 160147284, 160147285]</t>
+  </si>
+  <si>
+    <t>[160147328, 160147329, 160147330, 160147331, 160147332, 160147333, 160147334, 160147335, 160147336, 160147337, 160147338, 160147339, 160147340, 160147341, 160147342, 160147343, 160147325, 160147326, 160147327]</t>
+  </si>
+  <si>
+    <t>[160147392, 160147393, 160147394, 160147395, 160147396, 160147397, 160147398, 160147399, 160147400, 160147401, 160147402, 160147403, 160147404, 160147388, 160147389, 160147390, 160147391]</t>
+  </si>
+  <si>
+    <t>[160147110, 160147111, 160147112, 160147113, 160147114, 160147115, 160147116, 160147117, 160147118, 160147119, 160147120, 160147121]</t>
+  </si>
+  <si>
+    <t>[160147168, 160147169, 160147170, 160147171, 160147172, 160147173, 160147174, 160147175, 160147176, 160147177, 160147178, 160147166, 160147167]</t>
+  </si>
+  <si>
+    <t>[160147232, 160147233, 160147234, 160147235, 160147236, 160147237, 160147238, 160147239, 160147240, 160147256, 160147229, 160147230, 160147231]</t>
+  </si>
+  <si>
+    <t>[160147296, 160147297, 160147298, 160147299, 160147300, 160147286, 160147287, 160147288, 160147289, 160147290, 160147291, 160147292, 160147293, 160147294, 160147295]</t>
+  </si>
+  <si>
+    <t>[160147360, 160147361, 160147344, 160147345, 160147346, 160147347, 160147348, 160147349, 160147350, 160147351, 160147352, 160147353, 160147354, 160147355, 160147356, 160147357, 160147358, 160147359]</t>
+  </si>
+  <si>
+    <t>[160147405, 160147406, 160147407, 160147408, 160147409, 160147410, 160147411, 160147412, 160147413, 160147414, 160147415, 160147416, 160147417]</t>
+  </si>
+  <si>
+    <t>[160147136, 160147122, 160147123, 160147124, 160147125, 160147126, 160147127, 160147128, 160147129, 160147130, 160147131, 160147132, 160147133, 160147134, 160147135]</t>
+  </si>
+  <si>
+    <t>[160147204, 160147179, 160147180, 160147181, 160147182, 160147183, 160147184, 160147185, 160147186, 160147187, 160147188, 160147189, 160147190, 160147191, 160147192]</t>
+  </si>
+  <si>
+    <t>[160147241, 160147242, 160147243, 160147244, 160147245, 160147246, 160147247, 160147248, 160147249, 160147250, 160147251, 160147252, 160147253, 160147254, 160147255]</t>
+  </si>
+  <si>
+    <t>[160147301, 160147302, 160147303, 160147304, 160147305, 160147306, 160147307, 160147308, 160147309, 160147310]</t>
+  </si>
+  <si>
+    <t>[160147362, 160147363, 160147364, 160147365, 160147366, 160147367, 160147368, 160147369, 160147370, 160147371, 160147372, 160147373, 160147374]</t>
+  </si>
+  <si>
+    <t>[160147424, 160147425, 160147426, 160147427, 160147428, 160147429, 160147430, 160147431, 160147432, 160147433, 160147434, 160147435, 160147436, 160147437, 160147418, 160147419, 160147420, 160147421, 160147422, 160147423]</t>
+  </si>
+  <si>
+    <t>[160147137, 160147138, 160147139, 160147140, 160147141, 160147142, 160147143, 160147144, 160147145, 160147146, 160147147, 160147148, 160147149, 160147150]</t>
+  </si>
+  <si>
+    <t>[160147200, 160147201, 160147202, 160147203, 160147193, 160147194, 160147195, 160147196, 160147197, 160147198, 160147199]</t>
+  </si>
+  <si>
+    <t>[160147491, 160147492, 160147493, 160147494, 160147495, 160147496, 160147497, 160147498, 160147499, 160147500]</t>
+  </si>
+  <si>
+    <t>[160147652, 160147653, 160147654, 160147655, 160147656, 160147689, 160147657, 160147658, 160147659, 160147660, 160147661, 160147662]</t>
+  </si>
+  <si>
+    <t>[160147690, 160147691, 160147692, 160147693, 160147694, 160147695, 160147696, 160147697, 160147698, 160147699, 160147700]</t>
+  </si>
+  <si>
+    <t>[160147438, 160147439, 160147440, 160147441, 160147442, 160147443, 160147444, 160147445, 160147446, 160147447, 160147448, 160147449, 160147450, 160147451, 160147452]</t>
+  </si>
+  <si>
+    <t>[160147552, 160147553, 160147554, 160147542, 160147543, 160147544, 160147545, 160147546, 160147547, 160147548, 160147549, 160147550, 160147551]</t>
+  </si>
+  <si>
+    <t>[160147626, 160147624, 160147594, 160147595, 160147596, 160147597, 160147598, 160147599, 160147600, 160147601, 160147602, 160147603, 160147604, 160147605, 160147606, 160147607, 160147608]</t>
+  </si>
+  <si>
+    <t>[160147501, 160147502, 160147503, 160147504, 160147505, 160147506, 160147507, 160147508, 160147509, 160147510, 160147511, 160147512, 160147513, 160147514]</t>
+  </si>
+  <si>
+    <t>[160147663, 160147664, 160147665, 160147666, 160147667, 160147668, 160147669, 160147670, 160147671, 160147672, 160147673, 160147674, 160147675]</t>
+  </si>
+  <si>
+    <t>[160147712, 160147713, 160147714, 160147701, 160147702, 160147703, 160147704, 160147705, 160147706, 160147707, 160147708, 160147709, 160147710, 160147711]</t>
+  </si>
+  <si>
+    <t>[160147456, 160147457, 160147458, 160147459, 160147460, 160147461, 160147462, 160147463, 160147464, 160147453, 160147454, 160147455]</t>
+  </si>
+  <si>
+    <t>[160147555, 160147556, 160147557, 160147558, 160147559, 160147560, 160147561, 160147562, 160147563, 160147564, 160147565, 160147566]</t>
+  </si>
+  <si>
+    <t>[160147627, 160147628, 160147629, 160147630, 160147631, 160147632, 160147633, 160147634, 160147635, 160147636, 160147637]</t>
+  </si>
+  <si>
+    <t>[160147520, 160147521, 160147522, 160147523, 160147524, 160147525, 160147526, 160147527, 160147528, 160147529, 160147530, 160147515, 160147516, 160147517, 160147518, 160147519]</t>
+  </si>
+  <si>
+    <t>[160147680, 160147681, 160147682, 160147683, 160147684, 160147685, 160147686, 160147687, 160147688, 160147726, 160147734, 160147676, 160147677, 160147678, 160147679]</t>
+  </si>
+  <si>
+    <t>[160147715, 160147716, 160147717, 160147718, 160147719, 160147720, 160147721, 160147722, 160147723, 160147724, 160147725]</t>
+  </si>
+  <si>
+    <t>[160147465, 160147466, 160147467, 160147468, 160147469, 160147470, 160147471, 160147472, 160147473, 160147474, 160147475, 160147476, 160147477, 160147478]</t>
+  </si>
+  <si>
+    <t>[160147567, 160147568, 160147569, 160147570, 160147571, 160147572, 160147573, 160147574, 160147575, 160147576, 160147577, 160147578, 160147579, 160147580]</t>
+  </si>
+  <si>
+    <t>[160147648, 160147649, 160147650, 160147651, 160147638, 160147639, 160147640, 160147641, 160147642, 160147643, 160147644, 160147645, 160147646, 160147647]</t>
+  </si>
+  <si>
+    <t>[160147531, 160147532, 160147533, 160147534, 160147535, 160147536, 160147537, 160147538, 160147539, 160147540, 160147541]</t>
+  </si>
+  <si>
+    <t>[160147744, 160147745, 160147746, 160147747, 160147748, 160147737, 160147740, 160147741, 160147742, 160147743]</t>
+  </si>
+  <si>
+    <t>[160147727, 160147728, 160147729, 160147730, 160147731, 160147732, 160147733, 160147735, 160147736, 160147738, 160147739]</t>
+  </si>
+  <si>
+    <t>[160147488, 160147489, 160147490, 160147479, 160147480, 160147481, 160147482, 160147483, 160147484, 160147485, 160147486, 160147487]</t>
+  </si>
+  <si>
+    <t>[160147584, 160147585, 160147586, 160147587, 160147588, 160147589, 160147590, 160147591, 160147592, 160147593, 160147581, 160147582, 160147583]</t>
+  </si>
+  <si>
+    <t>[160147616, 160147617, 160147618, 160147619, 160147620, 160147621, 160147622, 160147623, 160147625, 160147609, 160147610, 160147611, 160147612, 160147613, 160147614, 160147615]</t>
+  </si>
+  <si>
+    <t>[160147852, 160147853, 160147854, 160147855, 160147856, 160147857, 160147858, 160147859, 160147860, 160147861, 160147862, 160147863, 160147864, 160147865, 160147866, 160147867, 160147868, 160147869, 160147870]</t>
+  </si>
+  <si>
+    <t>[160147936, 160147937, 160147920, 160147921, 160147922, 160147923, 160147924, 160147925, 160147926, 160147927, 160147928, 160147929, 160147930, 160147931, 160147932, 160147933, 160147934, 160147935]</t>
+  </si>
+  <si>
+    <t>[160147749, 160147750, 160147751, 160147752, 160147753, 160147754, 160147755, 160147756, 160147757, 160147758, 160147759, 160147760, 160147761]</t>
+  </si>
+  <si>
+    <t>[160147986, 160147987, 160147988, 160147989, 160147990, 160147991, 160147992, 160147993]</t>
+  </si>
+  <si>
+    <t>[160147808, 160147809, 160147810, 160147811, 160147812, 160147813, 160147801, 160147802, 160147803, 160147804, 160147805, 160147806, 160147807]</t>
+  </si>
+  <si>
+    <t>[160148032, 160148033, 160148034, 160148035, 160148036, 160148037, 160148038, 160148039, 160148040, 160148041, 160148042, 160148043, 160148031]</t>
+  </si>
+  <si>
+    <t>[160147872, 160147873, 160147874, 160147875, 160147876, 160147877, 160147878, 160147879, 160147880, 160147881, 160147882, 160147883, 160147884, 160147885, 160147886, 160147887, 160147871]</t>
+  </si>
+  <si>
+    <t>[160147938, 160147939, 160147940, 160147941, 160147942, 160147943, 160147944, 160147945, 160147946, 160147947, 160147948, 160147949, 160147950, 160147951, 160147952]</t>
+  </si>
+  <si>
+    <t>[160147776, 160147762, 160147763, 160147764, 160147765, 160147766, 160147767, 160147768, 160147769, 160147770, 160147771, 160147772, 160147773, 160147774, 160147775]</t>
+  </si>
+  <si>
+    <t>[160148000, 160148001, 160148002, 160148003, 160148004, 160148005, 160147994, 160147995, 160147996, 160147997, 160147998, 160147999]</t>
+  </si>
+  <si>
+    <t>[160147814, 160147815, 160147816, 160147817, 160147818, 160147819, 160147820, 160147821, 160147822, 160147823, 160147824, 160147825, 160147826, 160147827]</t>
+  </si>
+  <si>
+    <t>[160148044, 160148045, 160148046, 160148047, 160148048, 160148049, 160148050, 160148051, 160148052, 160148053, 160148054, 160148055]</t>
+  </si>
+  <si>
+    <t>[160147904, 160147888, 160147889, 160147890, 160147891, 160147892, 160147893, 160147894, 160147895, 160147896, 160147897, 160147898, 160147899, 160147900, 160147901, 160147902, 160147903]</t>
+  </si>
+  <si>
+    <t>[160147968, 160147969, 160147970, 160147953, 160147954, 160147955, 160147956, 160147957, 160147958, 160147959, 160147960, 160147961, 160147962, 160147963, 160147964, 160147965, 160147966, 160147967]</t>
+  </si>
+  <si>
+    <t>[160147777, 160147778, 160147779, 160147780, 160147781, 160147782, 160147783, 160147784, 160147785, 160147786, 160147787, 160147788]</t>
+  </si>
+  <si>
+    <t>[160148006, 160148007, 160148008, 160148009, 160148010, 160148011, 160148012, 160148013, 160148014, 160148015, 160148016, 160148017, 160148018]</t>
+  </si>
+  <si>
+    <t>[160147828, 160147829, 160147830, 160147831, 160147832, 160147833, 160147834, 160147835, 160147836, 160147837, 160147838, 160147839]</t>
+  </si>
+  <si>
+    <t>[160148064, 160148065, 160148079, 160148056, 160148057, 160148058, 160148059, 160148060, 160148061, 160148062, 160148063]</t>
+  </si>
+  <si>
+    <t>[160147905, 160147906, 160147907, 160147908, 160147909, 160147910, 160147911, 160147912, 160147913, 160147914, 160147915, 160147916, 160147917, 160147918, 160147919]</t>
+  </si>
+  <si>
+    <t>[160147971, 160147972, 160147973, 160147974, 160147975, 160147976, 160147977, 160147978, 160147979, 160147980, 160147981, 160147982, 160147983, 160147984, 160147985]</t>
+  </si>
+  <si>
+    <t>[160147789, 160147790, 160147791, 160147792, 160147793, 160147794, 160147795, 160147796, 160147797, 160147798, 160147799, 160147800]</t>
+  </si>
+  <si>
+    <t>[160148019, 160148020, 160148021, 160148022, 160148023, 160148024, 160148025, 160148026, 160148027, 160148028, 160148029, 160148030]</t>
+  </si>
+  <si>
+    <t>[160147840, 160147841, 160147842, 160147843, 160147844, 160147845, 160147846, 160147847, 160147848, 160147849, 160147850, 160147851]</t>
+  </si>
+  <si>
+    <t>[160148066, 160148067, 160148068, 160148069, 160148070, 160148071, 160148072, 160148073, 160148074, 160148075, 160148076, 160148077, 160148078]</t>
+  </si>
+  <si>
+    <t>[160148130, 160148080, 160148081, 160148082, 160148083, 160148084, 160148085, 160148086, 160148087, 160148088, 160148089, 160148090, 160148091, 160148092, 160148093, 160148094]</t>
+  </si>
+  <si>
+    <t>[160148131, 160148132, 160148133, 160148134, 160148135, 160148136, 160148169, 160148170, 160148171, 160148137, 160148172, 160148138, 160148139, 160148173, 160148174, 160148140, 160148403]</t>
+  </si>
+  <si>
+    <t>[160148218, 160148207, 160148208, 160148209, 160148210, 160148211, 160148213, 160148214, 160148215, 160148216, 160148217, 160179450, 160179451, 160148219]</t>
+  </si>
+  <si>
+    <t>[160148192, 160148193, 160148194, 160148195, 160148196, 160148197, 160148198, 160148199, 160148721, 160148722, 160148188, 160148189, 160148190, 160148191]</t>
+  </si>
+  <si>
+    <t>[160148288, 160148289, 160148290, 160148291, 160148293, 160148326, 160148327, 160148328, 160148294, 160148295, 160148296, 160148297, 160148723, 160148724]</t>
+  </si>
+  <si>
+    <t>[160148352, 160148353, 160148336, 160148337, 160148338, 160148339, 160148340, 160148341, 160148342, 160148343, 160148344, 160148345, 160148346, 160148347, 160148348, 160148349, 160148350, 160148351]</t>
+  </si>
+  <si>
+    <t>[160148096, 160148097, 160148098, 160179459, 160148099, 160148100, 160148101, 160148102, 160148103, 160148104, 160148105, 160148106, 160148095]</t>
+  </si>
+  <si>
+    <t>[160148141, 160148142, 160148143, 160148400, 160148176, 160148175, 160148144, 160148177, 160148145, 160148146, 160148178, 160148179, 160148147]</t>
+  </si>
+  <si>
+    <t>[160148224, 160148225, 160148226, 160148227, 160148228, 160148229, 160148230, 160148231, 160148232, 160148221, 160179452, 160179453, 160148222, 160148223]</t>
+  </si>
+  <si>
+    <t>[160148258, 160148259, 160148260, 160148261, 160148262, 160148200, 160148201, 160148202, 160148203, 160148204, 160148205, 160148206, 160148233, 160148212, 160148246, 160148220]</t>
+  </si>
+  <si>
+    <t>[160179461, 160148329, 160148298, 160148299, 160148300, 160148301, 160148302, 160148303, 160148330, 160148304, 160148305, 160148306, 160148307]</t>
+  </si>
+  <si>
+    <t>[160148354, 160148355, 160148356, 160148357, 160148358, 160148359, 160148360, 160148361, 160148362, 160148363, 160148364, 160148365, 160148366, 160148367, 160148368, 160148369, 160148370, 160148371]</t>
+  </si>
+  <si>
+    <t>[160179458, 160148107, 160148108, 160148109, 160148110, 160148111, 160148112, 160148113, 160148114, 160148115, 160148116, 160148117, 160148118]</t>
+  </si>
+  <si>
+    <t>[160148151, 160148183, 160148152, 160148184, 160148153, 160148180, 160148181, 160148148, 160148149, 160148150, 160148182, 160148154, 160148155, 160148156, 160148157, 160148158, 160148159]</t>
+  </si>
+  <si>
+    <t>[160148234, 160148235, 160148236, 160148237, 160148238, 160148239, 160148240, 160148241, 160148242, 160148243, 160148244, 160148245, 160179454]</t>
+  </si>
+  <si>
+    <t>[160148263, 160148264, 160148265, 160148266, 160148267, 160148268, 160148813, 160148269, 160148814, 160148270, 160148271, 160148272, 160148273, 160148274, 160148275, 160148276]</t>
+  </si>
+  <si>
+    <t>[160179462, 160179463, 160148331, 160148332, 160148333, 160148397, 160148399, 160148816, 160148308, 160148309, 160148310, 160148311, 160148312, 160148313, 160148314, 160148315, 160148316]</t>
+  </si>
+  <si>
+    <t>[160148401, 160148372, 160148373, 160148374, 160148375, 160148376, 160148377, 160148378, 160148379, 160148380, 160148381, 160148382, 160148383]</t>
+  </si>
+  <si>
+    <t>[160179456, 160179457, 160148128, 160148129, 160148119, 160148120, 160148121, 160148122, 160148123, 160148124, 160148125, 160148126, 160148127]</t>
+  </si>
+  <si>
+    <t>[160148160, 160148161, 160148162, 160148163, 160148164, 160148165, 160148166, 160148167, 160148168, 160148404, 160148185, 160148186, 160148187]</t>
+  </si>
+  <si>
+    <t>[160148256, 160148257, 160148335, 160148402, 160148255, 160148247, 160148248, 160148249, 160148250, 160148251, 160148252, 160148253, 160148254, 160179455]</t>
+  </si>
+  <si>
+    <t>[160179460, 160148277, 160148278, 160148279, 160148280, 160148281, 160148282, 160148283, 160148284, 160148285, 160148286, 160148287]</t>
+  </si>
+  <si>
+    <t>[160148320, 160148321, 160148322, 160148323, 160148324, 160148325, 160179464, 160179465, 160148334, 160148398, 160148317, 160148318, 160148319]</t>
+  </si>
+  <si>
+    <t>[160148384, 160148385, 160148386, 160148387, 160148388, 160148389, 160148390, 160148391, 160148392, 160148393, 160148394, 160148395, 160148396]</t>
+  </si>
+  <si>
+    <t>[160148410, 160148416, 160148417, 160148418, 160148419, 160148411, 160148725, 160148406, 160148407, 160148408, 160148409, 160148405, 160148726, 160148412, 160148413, 160148414, 160148415]</t>
+  </si>
+  <si>
+    <t>[160148555, 160148556, 160148557, 160148558, 160148559, 160148560, 160148561, 160148562, 160148563, 160148564, 160148565, 160148566, 160148567]</t>
+  </si>
+  <si>
+    <t>[160148512, 160148513, 160148516, 160148517, 160148518, 160179467, 160179468, 160148505, 160148506, 160148507, 160148508, 160148509, 160148510, 160148511]</t>
+  </si>
+  <si>
+    <t>[160148611, 160148612, 160148613, 160148614, 160148615, 160148616, 160148617, 160148618, 160148619, 160148620, 160148621, 160148622, 160148623, 160148624, 160179473, 160179474]</t>
+  </si>
+  <si>
+    <t>[160148672, 160148660, 160148661, 160148662, 160148663, 160148664, 160148665, 160148666, 160148667, 160148668, 160148669, 160148670, 160148671]</t>
+  </si>
+  <si>
+    <t>[160148456, 160148457, 160148458, 160148459, 160148460, 160148461, 160148462, 160148463, 160148464, 160148465, 160148466, 160148727, 160148728]</t>
+  </si>
+  <si>
+    <t>[160148420, 160148421, 160148422, 160148423, 160148424, 160148425, 160179466, 160148426, 160148427, 160148428, 160148429, 160148430, 160148431]</t>
+  </si>
+  <si>
+    <t>[160148576, 160148577, 160148578, 160179471, 160179472, 160148568, 160148569, 160148570, 160148571, 160148572, 160148573, 160148574, 160148575]</t>
+  </si>
+  <si>
+    <t>[160148514, 160148515, 160148519, 160148520, 160148521, 160148522, 160148523, 160148524, 160148525, 160148526, 160148527, 160148528]</t>
+  </si>
+  <si>
+    <t>[160148674, 160148625, 160148626, 160179475, 160148627, 160148628, 160148629, 160148630, 160148631, 160148633, 160148634, 160148635, 160148632]</t>
+  </si>
+  <si>
+    <t>[160148673, 160148675, 160148676, 160148677, 160148678, 160148679, 160148680, 160148681, 160148682, 160148683, 160148684, 160148685, 160148686, 160148687]</t>
+  </si>
+  <si>
+    <t>[160148730, 160148477, 160148468, 160148469, 160148470, 160148471, 160148472, 160148729, 160148474, 160148475, 160148476, 160148473, 160148478, 160148479]</t>
+  </si>
+  <si>
+    <t>[160148432, 160148817, 160148434, 160148467, 160148433, 160148818, 160148435, 160148436, 160148437, 160148438, 160148439, 160148441, 160148440]</t>
+  </si>
+  <si>
+    <t>[160148579, 160148580, 160148581, 160148582, 160148583, 160148584, 160148585, 160148586, 160148587, 160148588, 160148589, 160148590, 160148591, 160148592, 160148593, 160148594, 160148595]</t>
+  </si>
+  <si>
+    <t>[160179469, 160179470, 160148529, 160148530, 160148531, 160148532, 160148533, 160148534, 160148535, 160148536, 160148537, 160148538, 160148539]</t>
+  </si>
+  <si>
+    <t>[160148640, 160148641, 160148642, 160148643, 160148644, 160148645, 160148646, 160179476, 160148636, 160148637, 160148638, 160148639]</t>
+  </si>
+  <si>
+    <t>[160148688, 160148689, 160148690, 160148691, 160148692, 160148693, 160148694, 160148695, 160148696, 160148697, 160148698, 160148699, 160148700]</t>
+  </si>
+  <si>
+    <t>[160148480, 160148481, 160148482, 160148483, 160148484, 160148485, 160148486, 160148487, 160148488, 160148489, 160148490, 160148491, 160148492, 160148493, 160148502, 160148731, 160148732]</t>
+  </si>
+  <si>
+    <t>[160148448, 160148449, 160148450, 160148451, 160148452, 160148453, 160148454, 160148455, 160148442, 160148443, 160148444, 160148445, 160148446, 160148447]</t>
+  </si>
+  <si>
+    <t>[160148608, 160148609, 160148610, 160148596, 160148597, 160148598, 160148599, 160148600, 160148601, 160148602, 160148603, 160148604, 160148605, 160148606, 160148607]</t>
+  </si>
+  <si>
+    <t>[160148544, 160148545, 160148546, 160148547, 160148548, 160148549, 160148550, 160148551, 160148552, 160148553, 160148554, 160148540, 160148541, 160148542, 160148543]</t>
+  </si>
+  <si>
+    <t>[160148647, 160148648, 160148649, 160148650, 160148651, 160148652, 160148653, 160148654, 160148655, 160148656, 160148657, 160148658, 160148659, 160179477, 160179478]</t>
+  </si>
+  <si>
+    <t>[160148704, 160148705, 160148706, 160148707, 160148708, 160148709, 160148710, 160148711, 160148712, 160148701, 160148702, 160148703]</t>
+  </si>
+  <si>
+    <t>[160148713, 160148714, 160148494, 160148495, 160148496, 160148497, 160148498, 160148499, 160148500, 160148501, 160148503, 160148504]</t>
+  </si>
+  <si>
+    <t>[160179488, 160179489, 160179490, 160179491, 160179479, 160179480, 160179481, 160179482, 160179483, 160179484, 160179485, 160179486, 160179487]</t>
+  </si>
+  <si>
+    <t>[160179533, 160179534, 160179535, 160179536, 160179537, 160179538, 160179539, 160179540, 160179541, 160179542, 160179543, 160179544, 160179545, 160179546, 160179547, 160179548]</t>
+  </si>
+  <si>
+    <t>[160179808, 160179809, 160179810, 160179811, 160179812, 160179813, 160179814, 160179815, 160179816, 160179817, 160179818, 160179801, 160179802, 160179803, 160179804, 160179805, 160179806, 160179807]</t>
+  </si>
+  <si>
+    <t>[160179680, 160179681, 160179682, 160179683, 160179684, 160179685, 160179686, 160179687, 160179667, 160179668, 160179669, 160179670, 160179671, 160179672, 160179673, 160179674, 160179675, 160179676, 160179677, 160179678, 160179679]</t>
+  </si>
+  <si>
+    <t>[160179745, 160179746, 160179747, 160179748, 160179749, 160179750, 160179751, 160179752, 160179753, 160179754, 160179755, 160179756]</t>
+  </si>
+  <si>
+    <t>[160179616, 160179617, 160179618, 160179619, 160179602, 160179603, 160179604, 160179605, 160179606, 160179607, 160179608, 160179609, 160179610, 160179611, 160179612, 160179613, 160179614, 160179615]</t>
+  </si>
+  <si>
+    <t>[160179492, 160179493, 160179494, 160179495, 160179496, 160179497, 160179498, 160179499, 160179500, 160179501]</t>
+  </si>
+  <si>
+    <t>[160179552, 160179553, 160179554, 160179555, 160179556, 160179557, 160179558, 160179559, 160179560, 160179561, 160179562, 160179563, 160179564, 160179549, 160179550, 160179551]</t>
+  </si>
+  <si>
+    <t>[160179840, 160179841, 160179842, 160179819, 160179820, 160179821, 160179822, 160179823, 160179824, 160179825, 160179826, 160179827, 160179828, 160179829, 160179830, 160179831, 160179832, 160179833, 160179834, 160179835, 160179836, 160179837, 160179838, 160179839]</t>
+  </si>
+  <si>
+    <t>[160179688, 160179689, 160179690, 160179691, 160179692, 160179693, 160179694, 160179695, 160179696, 160179697, 160179698, 160179699, 160179700, 160179701, 160179702, 160179703, 160179704, 160179705, 160179706]</t>
+  </si>
+  <si>
+    <t>[160179757, 160179758, 160179759, 160179760, 160179761, 160179762, 160179763, 160179764, 160179765, 160179766, 160179767, 160179768, 160179769, 160179770, 160179771, 160179772]</t>
+  </si>
+  <si>
+    <t>[160179620, 160179621, 160179622, 160179623, 160179624, 160179625, 160179626, 160179627, 160179628, 160179629, 160179630, 160179631, 160179632, 160179633, 160179634, 160179635]</t>
+  </si>
+  <si>
+    <t>[160179502, 160179503, 160179504, 160179505, 160179506, 160179507, 160179508, 160179509, 160179510, 160179511, 160179512, 160179513, 160179514, 160179515, 160179516]</t>
+  </si>
+  <si>
+    <t>[160179565, 160179566, 160179567, 160179568, 160179569, 160179570, 160179571, 160179572, 160179573, 160179574, 160179575, 160179576, 160179577, 160179578, 160179579]</t>
+  </si>
+  <si>
+    <t>[160179843, 160179844, 160179845, 160179846, 160179847, 160179848, 160179849, 160179850, 160179851, 160179852, 160179853, 160179854, 160179855, 160179856, 160179857, 160179858, 160179859, 160179860]</t>
+  </si>
+  <si>
+    <t>[160179712, 160179713, 160179714, 160179715, 160179716, 160179717, 160179718, 160179719, 160179720, 160179721, 160179722, 160179723, 160179724, 160179725, 160179707, 160179708, 160179709, 160179710, 160179711]</t>
+  </si>
+  <si>
+    <t>[160179776, 160179777, 160179778, 160179779, 160179780, 160179781, 160179782, 160179783, 160179784, 160179785, 160179786, 160179787, 160179773, 160179774, 160179775]</t>
+  </si>
+  <si>
+    <t>[160179648, 160179649, 160179650, 160179651, 160179636, 160179637, 160179638, 160179639, 160179640, 160179641, 160179642, 160179643, 160179644, 160179645, 160179646, 160179647]</t>
+  </si>
+  <si>
+    <t>[160179520, 160179521, 160179522, 160179523, 160179524, 160179525, 160179526, 160179527, 160179528, 160179529, 160179530, 160179531, 160179532, 160179517, 160179518, 160179519]</t>
+  </si>
+  <si>
+    <t>[160179584, 160179585, 160179586, 160179587, 160179588, 160179589, 160179590, 160179591, 160179592, 160179593, 160179594, 160179595, 160179596, 160179597, 160179598, 160179599, 160179600, 160179601, 160179580, 160179581, 160179582, 160179583]</t>
+  </si>
+  <si>
+    <t>[160179872, 160179873, 160179874, 160179861, 160179862, 160179863, 160179864, 160179865, 160179866, 160179867, 160179868, 160179869, 160179870, 160179871]</t>
+  </si>
+  <si>
+    <t>[160179744, 160179726, 160179727, 160179728, 160179729, 160179730, 160179731, 160179732, 160179733, 160179734, 160179735, 160179736, 160179737, 160179738, 160179739, 160179740, 160179741, 160179742, 160179743]</t>
+  </si>
+  <si>
+    <t>[160179788, 160179789, 160179790, 160179791, 160179792, 160179793, 160179794, 160179795, 160179796, 160179797, 160179798, 160179799, 160179800]</t>
+  </si>
+  <si>
+    <t>[160179652, 160179653, 160179654, 160179655, 160179656, 160179657, 160179658, 160179659, 160179660, 160179661, 160179662, 160179663, 160179664, 160179665, 160179666]</t>
+  </si>
+  <si>
+    <t>[160179875, 160179876, 160179877, 160179878, 160179879, 160179880, 160179881, 160179882, 160179883, 160179884, 160179885, 160179886, 160179887, 160179888, 160179889]</t>
+  </si>
+  <si>
+    <t>[160179936, 160179937, 160179938, 160179939, 160179940, 160179941, 160179930, 160179931, 160179932, 160179933, 160179934, 160179935]</t>
+  </si>
+  <si>
+    <t>[160180000, 160180001, 160180002, 160180003, 160180004, 160180005, 160179987, 160179988, 160179989, 160179990, 160179991, 160179992, 160179993, 160179994, 160179995, 160179996, 160179997, 160179998, 160179999]</t>
+  </si>
+  <si>
+    <t>[160180064, 160180065, 160180066, 160180067, 160180050, 160180051, 160180052, 160180053, 160180054, 160180055, 160180056, 160180057, 160180058, 160180059, 160180060, 160180061, 160180062, 160180063]</t>
+  </si>
+  <si>
+    <t>[160180160, 160180161, 160180162, 160180163, 160180164, 160180165, 160180166, 160180167, 160180168, 160180169, 160180170, 160180171, 160180157, 160180158, 160180159]</t>
+  </si>
+  <si>
+    <t>[160180107, 160180108, 160180109, 160180110, 160180111, 160180112, 160180113, 160180114, 160180115, 160180116]</t>
+  </si>
+  <si>
+    <t>[160179904, 160179890, 160179891, 160179892, 160179893, 160179894, 160179895, 160179896, 160179897, 160179898, 160179899, 160179900, 160179901, 160179902, 160179903]</t>
+  </si>
+  <si>
+    <t>[160179942, 160179943, 160179944, 160179945, 160179946, 160179947, 160179948, 160179949, 160179950, 160179951, 160179952, 160179953, 160179954, 160179955, 160179956, 160179957, 160179958]</t>
+  </si>
+  <si>
+    <t>[160180006, 160180007, 160180008, 160180009, 160180010, 160180011, 160180012, 160180013, 160180014, 160180015, 160180016, 160180017, 160180018, 160180019, 160180020, 160180021]</t>
+  </si>
+  <si>
+    <t>[160180068, 160180069, 160180070, 160180071, 160180072, 160180073, 160180074, 160180075, 160180076, 160180077, 160180078, 160180079, 160180080, 160180081, 160180082]</t>
+  </si>
+  <si>
+    <t>[160180172, 160180173, 160180174, 160180175, 160180176, 160180177, 160180178, 160180179, 160180180, 160180181, 160180182, 160180183]</t>
+  </si>
+  <si>
+    <t>[160180117, 160180118, 160180119, 160180120, 160180121, 160180122, 160180123, 160180124, 160180125, 160180126, 160180127]</t>
+  </si>
+  <si>
+    <t>[160179905, 160179906, 160179907, 160179908, 160179909, 160179910, 160179911, 160179912, 160179913, 160179914, 160179915, 160179916, 160179917, 160179918]</t>
+  </si>
+  <si>
+    <t>[160179968, 160179969, 160179970, 160179971, 160179972, 160179973, 160179974, 160179959, 160179960, 160179961, 160179962, 160179963, 160179964, 160179965, 160179966, 160179967]</t>
+  </si>
+  <si>
+    <t>[160180032, 160180033, 160180022, 160180023, 160180024, 160180025, 160180026, 160180027, 160180028, 160180029, 160180030, 160180031]</t>
+  </si>
+  <si>
+    <t>[160180083, 160180084, 160180085, 160180086, 160180087, 160180088, 160180089, 160180090, 160180091, 160180092, 160180093, 160180094]</t>
+  </si>
+  <si>
+    <t>[160180192, 160180193, 160180194, 160180195, 160180196, 160180197, 160180184, 160180185, 160180186, 160180187, 160180188, 160180189, 160180190, 160180191]</t>
+  </si>
+  <si>
+    <t>[160180128, 160180129, 160180130, 160180131, 160180132, 160180133, 160180134, 160180135, 160180136, 160180137, 160180138]</t>
+  </si>
+  <si>
+    <t>[160179919, 160179920, 160179921, 160179922, 160179923, 160179924, 160179925, 160179926, 160179927, 160179928, 160179929]</t>
+  </si>
+  <si>
+    <t>[160179975, 160179976, 160179977, 160179978, 160179979, 160179980, 160179981, 160179982, 160179983, 160179984, 160179985, 160179986]</t>
+  </si>
+  <si>
+    <t>[160180034, 160180035, 160180036, 160180037, 160180038, 160180039, 160180040, 160180041, 160180042, 160180043, 160180044, 160180045, 160180046, 160180047, 160180048, 160180049]</t>
+  </si>
+  <si>
+    <t>[160180096, 160180097, 160180098, 160180099, 160180100, 160180101, 160180102, 160180103, 160180104, 160180105, 160180106, 160180095]</t>
+  </si>
+  <si>
+    <t>[160180198, 160180199, 160180200, 160180201, 160180202, 160180203, 160180204, 160180205, 160180206, 160180207, 160180208, 160180209, 160180210, 160180211, 160180212]</t>
+  </si>
+  <si>
+    <t>[160180139, 160180140, 160180141, 160180142, 160180143, 160180144, 160180145, 160180146, 160180147, 160180148, 160180149, 160180150, 160180151, 160180152, 160180153, 160180154, 160180155, 160180156]</t>
+  </si>
+  <si>
+    <t>[160180213, 160180214, 160180215, 160180216, 160180217, 160180218, 160180219, 160180220, 160180221, 160180222, 160180223]</t>
+  </si>
+  <si>
+    <t>[160180263, 160180264, 160180265, 160180266, 160180267, 160180268, 160180269, 160180270, 160180271, 160180272, 160180273, 160180274, 160180275]</t>
+  </si>
+  <si>
+    <t>[160180320, 160180321, 160180322, 160180323, 160180324, 160180325, 160180326, 160180327, 160180328, 160180329, 160180330, 160180331, 160180332, 160180333, 160180334, 160180318, 160180319]</t>
+  </si>
+  <si>
+    <t>[160180387, 160180388, 160180389, 160180390, 160180391, 160180392, 160180393, 160180394, 160180395, 160180396, 160180397, 160180398, 160180399, 160180400, 160180401, 160180402]</t>
+  </si>
+  <si>
+    <t>[160180512, 160180513, 160180514, 160180515, 160180516, 160180517, 160180518, 160180503, 160180504, 160180505, 160180506, 160180507, 160180508, 160180509, 160180510, 160180511]</t>
+  </si>
+  <si>
+    <t>[160180448, 160180449, 160180450, 160180451, 160180452, 160180453, 160180454, 160180455, 160180456, 160180457, 160180458, 160180459, 160180460, 160180461, 160180446, 160180447]</t>
+  </si>
+  <si>
+    <t>[160180224, 160180225, 160180226, 160180227, 160180228, 160180229, 160180230, 160180231, 160180232, 160180233, 160180234, 160180235, 160180236, 160180237, 160180238, 160180239, 160180240, 160180241]</t>
+  </si>
+  <si>
+    <t>[160180276, 160180277, 160180278, 160180279, 160180280, 160180281, 160180282, 160180283, 160180284, 160180285, 160180286, 160180287]</t>
+  </si>
+  <si>
+    <t>[160180335, 160180336, 160180337, 160180338, 160180339, 160180340, 160180341, 160180342, 160180343, 160180344, 160180345, 160180346, 160180347, 160180348, 160180349, 160180350, 160180351]</t>
+  </si>
+  <si>
+    <t>[160180416, 160180417, 160180418, 160180419, 160180403, 160180404, 160180405, 160180406, 160180407, 160180408, 160180409, 160180410, 160180411, 160180412, 160180413, 160180414, 160180415]</t>
+  </si>
+  <si>
+    <t>[160180519, 160180520, 160180521, 160180522, 160180523, 160180524, 160180525, 160180526, 160180527, 160180528, 160180529, 160180530, 160180531, 160180532]</t>
+  </si>
+  <si>
+    <t>[160180462, 160180463, 160180464, 160180465, 160180466, 160180467, 160180468, 160180469, 160180470, 160180471, 160180472]</t>
+  </si>
+  <si>
+    <t>[160180242, 160180243, 160180244, 160180245, 160180246, 160180247, 160180248, 160180249, 160180250, 160180251]</t>
+  </si>
+  <si>
+    <t>[160180288, 160180289, 160180290, 160180291, 160180292, 160180293, 160180294, 160180295, 160180296, 160180297, 160180298, 160180299]</t>
+  </si>
+  <si>
+    <t>[160180352, 160180353, 160180354, 160180355, 160180356, 160180357, 160180358, 160180359, 160180360, 160180361, 160180362, 160180363, 160180364, 160180365, 160180366, 160180367, 160180368, 160180369]</t>
+  </si>
+  <si>
+    <t>[160180420, 160180421, 160180422, 160180423, 160180424, 160180425, 160180426, 160180427, 160180428, 160180429, 160180430, 160180431, 160180432, 160180433, 160180434, 160180435, 160180436]</t>
+  </si>
+  <si>
+    <t>[160180544, 160180545, 160180546, 160180547, 160180533, 160180534, 160180535, 160180536, 160180537, 160180538, 160180539, 160180540, 160180541, 160180542, 160180543]</t>
+  </si>
+  <si>
+    <t>[160180480, 160180481, 160180482, 160180483, 160180484, 160180485, 160180486, 160180487, 160180473, 160180474, 160180475, 160180476, 160180477, 160180478, 160180479]</t>
+  </si>
+  <si>
+    <t>[160180256, 160180257, 160180258, 160180259, 160180260, 160180261, 160180262, 160180252, 160180253, 160180254, 160180255]</t>
+  </si>
+  <si>
+    <t>[160180300, 160180301, 160180302, 160180303, 160180304, 160180305, 160180306, 160180307, 160180308, 160180309, 160180310, 160180311, 160180312, 160180313, 160180314, 160180315, 160180316, 160180317]</t>
+  </si>
+  <si>
+    <t>[160180384, 160180385, 160180386, 160180370, 160180371, 160180372, 160180373, 160180374, 160180375, 160180376, 160180377, 160180378, 160180379, 160180380, 160180381, 160180382, 160180383]</t>
+  </si>
+  <si>
+    <t>[160180437, 160180438, 160180439, 160180440, 160180441, 160180442, 160180443, 160180444, 160180445]</t>
+  </si>
+  <si>
+    <t>[160180548, 160180549, 160180550, 160180551, 160180552, 160180553, 160180554, 160180555, 160180556, 160180557]</t>
+  </si>
+  <si>
+    <t>[160180488, 160180489, 160180490, 160180491, 160180492, 160180493, 160180494, 160180495, 160180496, 160180497, 160180498, 160180499, 160180500, 160180501, 160180502]</t>
+  </si>
+  <si>
+    <t>[160180610, 160180611, 160180612, 160180613, 160180614, 160180615, 160180616, 160180617, 160180618, 160180619, 160180620, 160180621, 160180622]</t>
+  </si>
+  <si>
+    <t>[160180782, 160180783, 160180784, 160180785, 160180786, 160180787, 160180788, 160180789, 160180790, 160180791, 160180792, 160180793, 160180794, 160180795]</t>
+  </si>
+  <si>
+    <t>[160180736, 160180737, 160180738, 160180739, 160180740, 160180726, 160180727, 160180728, 160180729, 160180730, 160180731, 160180732, 160180733, 160180734, 160180735]</t>
+  </si>
+  <si>
+    <t>[160180839, 160180840, 160180841, 160180842, 160180843, 160180844, 160180845, 160180846, 160180847, 160180848, 160180849, 160180850, 160180851, 160180852, 160180853]</t>
+  </si>
+  <si>
+    <t>[160180672, 160180673, 160180674, 160180675, 160180676, 160180677, 160180678, 160180679, 160180662, 160180663, 160180664, 160180665, 160180666, 160180667, 160180668, 160180669, 160180670, 160180671]</t>
+  </si>
+  <si>
+    <t>[160180558, 160180559, 160180560, 160180561, 160180562, 160180563, 160180564, 160180565, 160180566, 160180567, 160180568, 160180569, 160180570]</t>
+  </si>
+  <si>
+    <t>[160180623, 160180624, 160180625, 160180626, 160180627, 160180628, 160180629, 160180630, 160180631, 160180632, 160180633, 160180634, 160180635, 160180636]</t>
+  </si>
+  <si>
+    <t>[160180800, 160180801, 160180802, 160180803, 160180804, 160180805, 160180806, 160180807, 160180808, 160180809, 160180810, 160180796, 160180797, 160180798, 160180799]</t>
+  </si>
+  <si>
+    <t>[160180741, 160180742, 160180743, 160180744, 160180745, 160180746, 160180747, 160180748, 160180749, 160180750, 160180751, 160180752, 160180753, 160180754, 160180755]</t>
+  </si>
+  <si>
+    <t>[160180864, 160180865, 160180866, 160180867, 160180854, 160180855, 160180856, 160180857, 160180858, 160180859, 160180860, 160180861, 160180862, 160180863]</t>
+  </si>
+  <si>
+    <t>[160180680, 160180681, 160180682, 160180683, 160180684, 160180685, 160180686, 160180687, 160180688, 160180689, 160180690, 160180691, 160180692]</t>
+  </si>
+  <si>
+    <t>[160180576, 160180577, 160180578, 160180579, 160180580, 160180581, 160180582, 160180583, 160180571, 160180572, 160180573, 160180574, 160180575]</t>
+  </si>
+  <si>
+    <t>[160180640, 160180641, 160180642, 160180643, 160180644, 160180645, 160180646, 160180647, 160180648, 160180649, 160180637, 160180638, 160180639]</t>
+  </si>
+  <si>
+    <t>[160180811, 160180812, 160180813, 160180814, 160180815, 160180816, 160180817, 160180818, 160180819, 160180820, 160180821, 160180822, 160180823, 160180824]</t>
+  </si>
+  <si>
+    <t>[160180756, 160180757, 160180758, 160180759, 160180760, 160180761, 160180762, 160180763, 160180764, 160180765, 160180766]</t>
+  </si>
+  <si>
+    <t>[160180868, 160180869, 160180870, 160180871, 160180872, 160180873, 160180874, 160180875, 160180876, 160180877, 160180878]</t>
+  </si>
+  <si>
+    <t>[160180704, 160180705, 160180706, 160180707, 160180708, 160180693, 160180694, 160180695, 160180696, 160180697, 160180698, 160180699, 160180700, 160180701, 160180702, 160180703]</t>
+  </si>
+  <si>
+    <t>[160180584, 160180585, 160180586, 160180587, 160180588, 160180589, 160180590, 160180591, 160180592, 160180593, 160180594, 160180595, 160180596]</t>
+  </si>
+  <si>
+    <t>[160180650, 160180651, 160180652, 160180653, 160180654, 160180655, 160180656, 160180657, 160180658, 160180659, 160180660, 160180661]</t>
+  </si>
+  <si>
+    <t>[160180832, 160180833, 160180834, 160180835, 160180836, 160180837, 160180838, 160180825, 160180826, 160180827, 160180828, 160180829, 160180830, 160180831]</t>
+  </si>
+  <si>
+    <t>[160180768, 160180769, 160180770, 160180771, 160180772, 160180773, 160180774, 160180775, 160180776, 160180777, 160180778, 160180779, 160180780, 160180781, 160180767]</t>
+  </si>
+  <si>
+    <t>[160180879, 160180880, 160180881, 160180882, 160180883, 160180884, 160180885, 160180886, 160180887, 160180888, 160180889, 160180890]</t>
+  </si>
+  <si>
+    <t>[160180709, 160180710, 160180711, 160180712, 160180713, 160180714, 160180715, 160180716, 160180717, 160180718, 160180719, 160180720, 160180721, 160180722, 160180723, 160180724, 160180725]</t>
+  </si>
+  <si>
+    <t>[160180608, 160180609, 160180597, 160180598, 160180599, 160180600, 160180601, 160180602, 160180603, 160180604, 160180605, 160180606, 160180607]</t>
   </si>
 </sst>
 </file>
